--- a/项目管理/进度计划/妲己游戏计划.xlsx
+++ b/项目管理/进度计划/妲己游戏计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\工作\手游1\项目管理\进度计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="140" windowWidth="31200" windowHeight="19260" tabRatio="500"/>
+    <workbookView xWindow="2955" yWindow="135" windowWidth="31200" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="游戏范围" sheetId="2" r:id="rId1"/>
@@ -13,9 +18,9 @@
     <sheet name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">游戏范围!$A$3:$X$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">游戏范围!$A$3:$AA$133</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
     <author>mtong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="552">
   <si>
     <t>标题目的</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2246,6 +2251,80 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0..25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为只是宠物相关的基础内容，不包含各种宠物相关的功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含补充开发内容和添加log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只包含抓宠的道具使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例和测试放到每个本和怪身上具体测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照xw说的非常简单的技能逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档分析和用例只考虑了文档修改部分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含套装配置测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含装备内容配置测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少副本内容条目，时间估算在这里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间不可预估</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>也许可以不用测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档分析时间为基础时间*1.5（与策划反馈修改）
+用例时间为基础时间*1.3（走读修改）
+测试时间为基础时间*2（提bug，验bug，出现不可预知阻碍，多机型兼容性）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2283,6 +2362,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2778,7 +2858,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2964,143 +3044,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="268">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -3234,8 +3187,141 @@
     <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="267" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="88">
     <dxf>
       <fill>
         <patternFill>
@@ -3481,6 +3567,150 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -3667,12 +3897,157 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3998,25 +4373,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X133"/>
+  <dimension ref="A3:AA133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="54"/>
-    <col min="2" max="2" width="7.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="54" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="5.7109375" style="54" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="54" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="54"/>
+    <col min="1" max="1" width="10.6640625" style="54"/>
+    <col min="2" max="2" width="7.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="5.6640625" style="54" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="54" customWidth="1"/>
+    <col min="14" max="16" width="5.6640625" style="54" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" style="54" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="54"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>17</v>
@@ -4037,58 +4414,67 @@
         <v>266</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" customFormat="1">
+    <row r="4" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>180</v>
       </c>
@@ -4106,25 +4492,36 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="K4" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>539</v>
+      </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
-      <c r="X4" s="16"/>
-    </row>
-    <row r="5" spans="1:24" customFormat="1">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="16"/>
+    </row>
+    <row r="5" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="58"/>
       <c r="B5" s="11" t="s">
         <v>31</v>
@@ -4140,25 +4537,34 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="K5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.5</v>
+      </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="16"/>
-    </row>
-    <row r="6" spans="1:24" customFormat="1">
+      <c r="W5" s="14"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="16"/>
+    </row>
+    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>37</v>
@@ -4174,25 +4580,36 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="K6" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>540</v>
+      </c>
       <c r="N6" s="13"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
-      <c r="X6" s="16"/>
-    </row>
-    <row r="7" spans="1:24" customFormat="1">
+      <c r="X6" s="14"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="16"/>
+    </row>
+    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="14" t="s">
         <v>31</v>
@@ -4210,25 +4627,34 @@
       <c r="G7" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="K7" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="14"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
-      <c r="X7" s="16"/>
-    </row>
-    <row r="8" spans="1:24" customFormat="1">
+      <c r="X7" s="14"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="16"/>
+    </row>
+    <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="14" t="s">
         <v>37</v>
@@ -4246,25 +4672,34 @@
       <c r="G8" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0.25</v>
+      </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="14"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
-      <c r="X8" s="16"/>
-    </row>
-    <row r="9" spans="1:24" customFormat="1">
+      <c r="X8" s="14"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="16"/>
+    </row>
+    <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="14" t="s">
         <v>31</v>
@@ -4282,25 +4717,34 @@
       <c r="G9" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.25</v>
+      </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="14"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
-      <c r="X9" s="16"/>
-    </row>
-    <row r="10" spans="1:24" customFormat="1">
+      <c r="X9" s="14"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="16"/>
+    </row>
+    <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
         <v>58</v>
@@ -4318,25 +4762,34 @@
       <c r="G10" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0.5</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="14"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
-      <c r="X10" s="16"/>
-    </row>
-    <row r="11" spans="1:24" customFormat="1">
+      <c r="X10" s="14"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="16"/>
+    </row>
+    <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="14" t="s">
         <v>37</v>
@@ -4354,25 +4807,36 @@
       <c r="G11" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="K11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>542</v>
+      </c>
       <c r="N11" s="13"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="14"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
-      <c r="X11" s="16"/>
-    </row>
-    <row r="12" spans="1:24" customFormat="1">
+      <c r="X11" s="14"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="16"/>
+    </row>
+    <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="21" t="s">
         <v>74</v>
@@ -4390,25 +4854,34 @@
       <c r="G12" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="14"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
-      <c r="X12" s="16"/>
-    </row>
-    <row r="13" spans="1:24" customFormat="1">
+      <c r="X12" s="14"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="16"/>
+    </row>
+    <row r="13" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
       <c r="B13" s="11" t="s">
         <v>63</v>
@@ -4426,25 +4899,32 @@
       <c r="G13" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="M13" s="65" t="s">
+        <v>543</v>
+      </c>
       <c r="N13" s="13"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
-      <c r="X13" s="16"/>
-    </row>
-    <row r="14" spans="1:24" customFormat="1">
+      <c r="X13" s="14"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="16"/>
+    </row>
+    <row r="14" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="58"/>
       <c r="B14" s="11" t="s">
         <v>37</v>
@@ -4462,25 +4942,36 @@
       <c r="G14" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>544</v>
+      </c>
       <c r="N14" s="13"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
-      <c r="X14" s="16"/>
-    </row>
-    <row r="15" spans="1:24" customFormat="1">
+      <c r="X14" s="14"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="16"/>
+    </row>
+    <row r="15" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="14" t="s">
         <v>47</v>
@@ -4496,25 +4987,36 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="K15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="M15" s="65" t="s">
+        <v>545</v>
+      </c>
       <c r="N15" s="13"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="14"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
-      <c r="X15" s="16"/>
-    </row>
-    <row r="16" spans="1:24" customFormat="1">
+      <c r="X15" s="14"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="16"/>
+    </row>
+    <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="21" t="s">
         <v>72</v>
@@ -4532,25 +5034,34 @@
       <c r="G16" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="K16" s="13">
+        <v>3</v>
+      </c>
+      <c r="L16" s="13">
+        <v>4</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="15"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
-      <c r="X16" s="16"/>
-    </row>
-    <row r="17" spans="1:24" customFormat="1">
+      <c r="X16" s="14"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="16"/>
+    </row>
+    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="14" t="s">
         <v>78</v>
@@ -4568,25 +5079,34 @@
       <c r="G17" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
-      <c r="X17" s="16"/>
-    </row>
-    <row r="18" spans="1:24" customFormat="1">
+      <c r="X17" s="14"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="16"/>
+    </row>
+    <row r="18" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
       <c r="B18" s="11" t="s">
         <v>74</v>
@@ -4604,25 +5124,34 @@
       <c r="G18" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="17"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="17"/>
+      <c r="T18" s="14"/>
       <c r="U18" s="17"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="14"/>
       <c r="W18" s="17"/>
-      <c r="X18" s="16"/>
-    </row>
-    <row r="19" spans="1:24" customFormat="1">
+      <c r="X18" s="17"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="16"/>
+    </row>
+    <row r="19" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="59"/>
       <c r="B19" s="21" t="s">
         <v>89</v>
@@ -4640,25 +5169,34 @@
       <c r="G19" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="K19" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L19" s="13">
+        <v>2</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
-      <c r="X19" s="16"/>
-    </row>
-    <row r="20" spans="1:24" ht="10" customHeight="1">
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="16"/>
+    </row>
+    <row r="20" spans="1:27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -4672,18 +5210,21 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="15"/>
       <c r="W20" s="17"/>
-      <c r="X20" s="16"/>
-    </row>
-    <row r="21" spans="1:24" customFormat="1">
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="16"/>
+    </row>
+    <row r="21" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="63"/>
       <c r="B21" s="14" t="s">
         <v>72</v>
@@ -4699,25 +5240,34 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="17"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="15"/>
       <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
+      <c r="V21" s="15"/>
       <c r="W21" s="17"/>
-      <c r="X21" s="16"/>
-    </row>
-    <row r="22" spans="1:24" customFormat="1">
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="16"/>
+    </row>
+    <row r="22" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="63"/>
       <c r="B22" s="14" t="s">
         <v>72</v>
@@ -4733,25 +5283,34 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="K22" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="13">
+        <v>1</v>
+      </c>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="17"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="15"/>
       <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
+      <c r="V22" s="15"/>
       <c r="W22" s="17"/>
-      <c r="X22" s="16"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="16"/>
+    </row>
+    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="63"/>
       <c r="B23" s="14" t="s">
         <v>72</v>
@@ -4767,25 +5326,34 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="17"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="15"/>
       <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
+      <c r="V23" s="15"/>
       <c r="W23" s="17"/>
-      <c r="X23" s="16"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="16"/>
+    </row>
+    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="63"/>
       <c r="B24" s="14" t="s">
         <v>72</v>
@@ -4801,25 +5369,34 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="17"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="15"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
+      <c r="V24" s="15"/>
       <c r="W24" s="17"/>
-      <c r="X24" s="16"/>
-    </row>
-    <row r="25" spans="1:24" customFormat="1">
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="16"/>
+    </row>
+    <row r="25" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="63"/>
       <c r="B25" s="14" t="s">
         <v>72</v>
@@ -4835,25 +5412,34 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="K25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0.5</v>
+      </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="17"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="15"/>
       <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
+      <c r="V25" s="15"/>
       <c r="W25" s="17"/>
-      <c r="X25" s="16"/>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="16"/>
+    </row>
+    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="63"/>
       <c r="B26" s="14" t="s">
         <v>72</v>
@@ -4869,25 +5455,34 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="K26" s="13">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="17"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="15"/>
       <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
+      <c r="V26" s="15"/>
       <c r="W26" s="17"/>
-      <c r="X26" s="16"/>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="16"/>
+    </row>
+    <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="63"/>
       <c r="B27" s="14" t="s">
         <v>72</v>
@@ -4903,25 +5498,34 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="17"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="15"/>
       <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
+      <c r="V27" s="15"/>
       <c r="W27" s="17"/>
-      <c r="X27" s="16"/>
-    </row>
-    <row r="28" spans="1:24" customFormat="1">
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="16"/>
+    </row>
+    <row r="28" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="63"/>
       <c r="B28" s="14" t="s">
         <v>72</v>
@@ -4937,25 +5541,34 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="13" t="s">
+        <v>536</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="17"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="15"/>
       <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
+      <c r="V28" s="15"/>
       <c r="W28" s="17"/>
-      <c r="X28" s="16"/>
-    </row>
-    <row r="29" spans="1:24" customFormat="1">
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="16"/>
+    </row>
+    <row r="29" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="63"/>
       <c r="B29" s="14" t="s">
         <v>72</v>
@@ -4971,25 +5584,34 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="K29" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="13">
+        <v>1</v>
+      </c>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="17"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="15"/>
       <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
+      <c r="V29" s="15"/>
       <c r="W29" s="17"/>
-      <c r="X29" s="16"/>
-    </row>
-    <row r="30" spans="1:24" customFormat="1">
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="16"/>
+    </row>
+    <row r="30" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="63"/>
       <c r="B30" s="14" t="s">
         <v>72</v>
@@ -5005,25 +5627,34 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="K30" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1</v>
+      </c>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="17"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="15"/>
       <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
+      <c r="V30" s="15"/>
       <c r="W30" s="17"/>
-      <c r="X30" s="16"/>
-    </row>
-    <row r="31" spans="1:24" customFormat="1">
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="16"/>
+    </row>
+    <row r="31" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="63"/>
       <c r="B31" s="14" t="s">
         <v>72</v>
@@ -5039,25 +5670,34 @@
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="K31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L31" s="13">
+        <v>1</v>
+      </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="17"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="15"/>
       <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
+      <c r="V31" s="15"/>
       <c r="W31" s="17"/>
-      <c r="X31" s="16"/>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="16"/>
+    </row>
+    <row r="32" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="63"/>
       <c r="B32" s="14" t="s">
         <v>72</v>
@@ -5073,25 +5713,34 @@
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="K32" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0.5</v>
+      </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="17"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="15"/>
       <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
+      <c r="V32" s="15"/>
       <c r="W32" s="17"/>
-      <c r="X32" s="16"/>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="16"/>
+    </row>
+    <row r="33" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="63"/>
       <c r="B33" s="14" t="s">
         <v>72</v>
@@ -5107,25 +5756,34 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="H33" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="K33" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L33" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="17"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="15"/>
       <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
+      <c r="V33" s="15"/>
       <c r="W33" s="17"/>
-      <c r="X33" s="16"/>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="16"/>
+    </row>
+    <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="63"/>
       <c r="B34" s="14" t="s">
         <v>94</v>
@@ -5141,25 +5799,34 @@
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
+      <c r="H34" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
+        <v>1</v>
+      </c>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="17"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="15"/>
       <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
+      <c r="V34" s="15"/>
       <c r="W34" s="17"/>
-      <c r="X34" s="16"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="16"/>
+    </row>
+    <row r="35" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="63"/>
       <c r="B35" s="14" t="s">
         <v>74</v>
@@ -5175,25 +5842,34 @@
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="H35" s="13" t="s">
+        <v>535</v>
+      </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="K35" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="13">
+        <v>2</v>
+      </c>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="24"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="11"/>
-    </row>
-    <row r="36" spans="1:24" customFormat="1">
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="11"/>
+    </row>
+    <row r="36" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="63"/>
       <c r="B36" s="14" t="s">
         <v>74</v>
@@ -5209,25 +5885,36 @@
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="K36" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="65" t="s">
+        <v>546</v>
+      </c>
       <c r="N36" s="13"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="24"/>
       <c r="T36" s="14"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="11"/>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="11"/>
+    </row>
+    <row r="37" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="63"/>
       <c r="B37" s="14" t="s">
         <v>74</v>
@@ -5243,25 +5930,36 @@
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="K37" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="13">
+        <v>1</v>
+      </c>
+      <c r="M37" s="65" t="s">
+        <v>547</v>
+      </c>
       <c r="N37" s="13"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="24"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="11"/>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="11"/>
+    </row>
+    <row r="38" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="63"/>
       <c r="B38" s="14" t="s">
         <v>74</v>
@@ -5277,25 +5975,34 @@
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="K38" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L38" s="13">
+        <v>1</v>
+      </c>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="24"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="11"/>
-    </row>
-    <row r="39" spans="1:24" customFormat="1">
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="11"/>
+    </row>
+    <row r="39" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="63"/>
       <c r="B39" s="14" t="s">
         <v>74</v>
@@ -5311,25 +6018,34 @@
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="K39" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="13">
+        <v>1</v>
+      </c>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="24"/>
       <c r="T39" s="14"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="11"/>
-    </row>
-    <row r="40" spans="1:24" customFormat="1">
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="11"/>
+    </row>
+    <row r="40" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="63"/>
       <c r="B40" s="14" t="s">
         <v>74</v>
@@ -5345,25 +6061,34 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="H40" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
+      <c r="K40" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="13">
+        <v>1</v>
+      </c>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="24"/>
       <c r="T40" s="14"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="11"/>
-    </row>
-    <row r="41" spans="1:24" customFormat="1">
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="11"/>
+    </row>
+    <row r="41" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="63"/>
       <c r="B41" s="14" t="s">
         <v>74</v>
@@ -5379,25 +6104,34 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="H41" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
+      <c r="K41" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="13">
+        <v>1</v>
+      </c>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="24"/>
       <c r="T41" s="14"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="11"/>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="11"/>
+    </row>
+    <row r="42" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="63"/>
       <c r="B42" s="14" t="s">
         <v>74</v>
@@ -5413,25 +6147,34 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="H42" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
+      <c r="K42" s="13">
+        <v>1</v>
+      </c>
+      <c r="L42" s="13">
+        <v>2</v>
+      </c>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="24"/>
       <c r="T42" s="14"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="11"/>
-    </row>
-    <row r="43" spans="1:24" customFormat="1">
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="11"/>
+    </row>
+    <row r="43" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="63"/>
       <c r="B43" s="14" t="s">
         <v>74</v>
@@ -5447,25 +6190,34 @@
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="H43" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
+      <c r="K43" s="13">
+        <v>1</v>
+      </c>
+      <c r="L43" s="13">
+        <v>1</v>
+      </c>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="24"/>
       <c r="T43" s="14"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="11"/>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="11"/>
+    </row>
+    <row r="44" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="63"/>
       <c r="B44" s="14" t="s">
         <v>74</v>
@@ -5481,25 +6233,34 @@
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="H44" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
+      <c r="K44" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1</v>
+      </c>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="24"/>
       <c r="T44" s="14"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="11"/>
-    </row>
-    <row r="45" spans="1:24" customFormat="1">
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="11"/>
+    </row>
+    <row r="45" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="63"/>
       <c r="B45" s="14" t="s">
         <v>74</v>
@@ -5515,25 +6276,34 @@
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="H45" s="13">
+        <v>1</v>
+      </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
+      <c r="K45" s="13">
+        <v>2</v>
+      </c>
+      <c r="L45" s="13">
+        <v>4</v>
+      </c>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="24"/>
       <c r="T45" s="14"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="11"/>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="11"/>
+    </row>
+    <row r="46" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="63"/>
       <c r="B46" s="14" t="s">
         <v>74</v>
@@ -5549,25 +6319,34 @@
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
+      <c r="H46" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
+      <c r="K46" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L46" s="13">
+        <v>2</v>
+      </c>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="24"/>
       <c r="T46" s="14"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="11"/>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="11"/>
+    </row>
+    <row r="47" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="63"/>
       <c r="B47" s="14" t="s">
         <v>74</v>
@@ -5583,25 +6362,34 @@
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
+      <c r="H47" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+      <c r="K47" s="13">
+        <v>1</v>
+      </c>
+      <c r="L47" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="24"/>
       <c r="T47" s="14"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="11"/>
-    </row>
-    <row r="48" spans="1:24" customFormat="1">
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="11"/>
+    </row>
+    <row r="48" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="63"/>
       <c r="B48" s="14" t="s">
         <v>74</v>
@@ -5617,25 +6405,34 @@
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
+      <c r="H48" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
+      <c r="K48" s="13">
+        <v>2</v>
+      </c>
+      <c r="L48" s="13">
+        <v>2.5</v>
+      </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="24"/>
       <c r="T48" s="14"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="11"/>
-    </row>
-    <row r="49" spans="1:24" customFormat="1">
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="11"/>
+    </row>
+    <row r="49" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="63"/>
       <c r="B49" s="14" t="s">
         <v>74</v>
@@ -5651,25 +6448,34 @@
       </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
+      <c r="H49" s="13">
+        <v>1</v>
+      </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
+      <c r="K49" s="13">
+        <v>2</v>
+      </c>
+      <c r="L49" s="13">
+        <v>3</v>
+      </c>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="24"/>
       <c r="T49" s="14"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="11"/>
-    </row>
-    <row r="50" spans="1:24" customFormat="1">
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="11"/>
+    </row>
+    <row r="50" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="63"/>
       <c r="B50" s="14" t="s">
         <v>74</v>
@@ -5685,25 +6491,34 @@
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
+      <c r="K50" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="13">
+        <v>1</v>
+      </c>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="24"/>
       <c r="T50" s="14"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="11"/>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="11"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="63"/>
       <c r="B51" s="25" t="s">
         <v>81</v>
@@ -5719,25 +6534,34 @@
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
+      <c r="H51" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
+      <c r="K51" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="13">
+        <v>1</v>
+      </c>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="17"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="15"/>
       <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
+      <c r="V51" s="15"/>
       <c r="W51" s="17"/>
-      <c r="X51" s="16"/>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="16"/>
+    </row>
+    <row r="52" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="63"/>
       <c r="B52" s="14" t="s">
         <v>72</v>
@@ -5753,25 +6577,34 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="H52" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
+      <c r="K52" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="L52" s="13">
+        <v>0.5</v>
+      </c>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="17"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="15"/>
       <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
+      <c r="V52" s="15"/>
       <c r="W52" s="17"/>
-      <c r="X52" s="16"/>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="16"/>
+    </row>
+    <row r="53" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="63"/>
       <c r="B53" s="14" t="s">
         <v>72</v>
@@ -5787,25 +6620,34 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="H53" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
+      <c r="K53" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0.5</v>
+      </c>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="17"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="15"/>
       <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
+      <c r="V53" s="15"/>
       <c r="W53" s="17"/>
-      <c r="X53" s="16"/>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="16"/>
+    </row>
+    <row r="54" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="63"/>
       <c r="B54" s="14" t="s">
         <v>72</v>
@@ -5821,25 +6663,34 @@
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
+      <c r="H54" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
+      <c r="K54" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="13">
+        <v>1</v>
+      </c>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="17"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="15"/>
       <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
+      <c r="V54" s="15"/>
       <c r="W54" s="17"/>
-      <c r="X54" s="16"/>
-    </row>
-    <row r="55" spans="1:24" customFormat="1">
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="16"/>
+    </row>
+    <row r="55" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="63"/>
       <c r="B55" s="14" t="s">
         <v>72</v>
@@ -5855,25 +6706,34 @@
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="H55" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
+      <c r="K55" s="13">
+        <v>1</v>
+      </c>
+      <c r="L55" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="17"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="15"/>
       <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
+      <c r="V55" s="15"/>
       <c r="W55" s="17"/>
-      <c r="X55" s="16"/>
-    </row>
-    <row r="56" spans="1:24" customFormat="1">
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="16"/>
+    </row>
+    <row r="56" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="63"/>
       <c r="B56" s="14" t="s">
         <v>72</v>
@@ -5889,25 +6749,34 @@
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="H56" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
+      <c r="K56" s="13">
+        <v>1</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="17"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="15"/>
       <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
+      <c r="V56" s="15"/>
       <c r="W56" s="17"/>
-      <c r="X56" s="16"/>
-    </row>
-    <row r="57" spans="1:24" customFormat="1">
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="16"/>
+    </row>
+    <row r="57" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="63"/>
       <c r="B57" s="14" t="s">
         <v>72</v>
@@ -5923,25 +6792,34 @@
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
+      <c r="K57" s="13">
+        <v>1</v>
+      </c>
+      <c r="L57" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="17"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="15"/>
       <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
+      <c r="V57" s="15"/>
       <c r="W57" s="17"/>
-      <c r="X57" s="16"/>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="16"/>
+    </row>
+    <row r="58" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="63" t="s">
         <v>291</v>
       </c>
@@ -5959,25 +6837,34 @@
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="H58" s="13">
+        <v>0.25</v>
+      </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
+      <c r="K58" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L58" s="13">
+        <v>0.5</v>
+      </c>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="17"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="15"/>
       <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
+      <c r="V58" s="15"/>
       <c r="W58" s="17"/>
-      <c r="X58" s="16"/>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="16"/>
+    </row>
+    <row r="59" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="63"/>
       <c r="B59" s="14" t="s">
         <v>72</v>
@@ -5993,25 +6880,34 @@
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
+      <c r="H59" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
+      <c r="K59" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="L59" s="13">
+        <v>1</v>
+      </c>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="17"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="15"/>
       <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
+      <c r="V59" s="15"/>
       <c r="W59" s="17"/>
-      <c r="X59" s="16"/>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="16"/>
+    </row>
+    <row r="60" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="63"/>
       <c r="B60" s="14" t="s">
         <v>72</v>
@@ -6027,25 +6923,34 @@
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
+      <c r="H60" s="13">
+        <v>1</v>
+      </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
+      <c r="K60" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L60" s="13">
+        <v>2</v>
+      </c>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="17"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="15"/>
       <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
+      <c r="V60" s="15"/>
       <c r="W60" s="17"/>
-      <c r="X60" s="16"/>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="16"/>
+    </row>
+    <row r="61" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="63"/>
       <c r="B61" s="14" t="s">
         <v>72</v>
@@ -6061,25 +6966,34 @@
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
+      <c r="H61" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
+      <c r="K61" s="13">
+        <v>1</v>
+      </c>
+      <c r="L61" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="17"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="15"/>
       <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
+      <c r="V61" s="15"/>
       <c r="W61" s="17"/>
-      <c r="X61" s="16"/>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="16"/>
+    </row>
+    <row r="62" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="63"/>
       <c r="B62" s="14" t="s">
         <v>72</v>
@@ -6095,25 +7009,34 @@
       </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+      <c r="H62" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
+      <c r="K62" s="13">
+        <v>1</v>
+      </c>
+      <c r="L62" s="13">
+        <v>1</v>
+      </c>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="17"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="15"/>
       <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
+      <c r="V62" s="15"/>
       <c r="W62" s="17"/>
-      <c r="X62" s="16"/>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="16"/>
+    </row>
+    <row r="63" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="63"/>
       <c r="B63" s="14" t="s">
         <v>72</v>
@@ -6129,25 +7052,34 @@
       </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="H63" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
+      <c r="K63" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L63" s="13">
+        <v>2</v>
+      </c>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="17"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="15"/>
       <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
+      <c r="V63" s="15"/>
       <c r="W63" s="17"/>
-      <c r="X63" s="16"/>
-    </row>
-    <row r="64" spans="1:24" customFormat="1">
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="16"/>
+    </row>
+    <row r="64" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="63"/>
       <c r="B64" s="14" t="s">
         <v>72</v>
@@ -6163,25 +7095,34 @@
       </c>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
+      <c r="H64" s="13">
+        <v>1</v>
+      </c>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
+      <c r="K64" s="13">
+        <v>2</v>
+      </c>
+      <c r="L64" s="13">
+        <v>2.5</v>
+      </c>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="17"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="15"/>
       <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
+      <c r="V64" s="15"/>
       <c r="W64" s="17"/>
-      <c r="X64" s="16"/>
-    </row>
-    <row r="65" spans="1:24" customFormat="1">
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="16"/>
+    </row>
+    <row r="65" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="63"/>
       <c r="B65" s="14" t="s">
         <v>72</v>
@@ -6197,25 +7138,34 @@
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
+      <c r="H65" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
+      <c r="K65" s="13">
+        <v>1</v>
+      </c>
+      <c r="L65" s="13">
+        <v>1.5</v>
+      </c>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="17"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="15"/>
       <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
+      <c r="V65" s="15"/>
       <c r="W65" s="17"/>
-      <c r="X65" s="16"/>
-    </row>
-    <row r="66" spans="1:24" customFormat="1">
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="16"/>
+    </row>
+    <row r="66" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="63"/>
       <c r="B66" s="14" t="s">
         <v>72</v>
@@ -6231,25 +7181,34 @@
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
+      <c r="H66" s="13">
+        <v>1</v>
+      </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
+      <c r="K66" s="13">
+        <v>2</v>
+      </c>
+      <c r="L66" s="13">
+        <v>3</v>
+      </c>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="17"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="15"/>
       <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
+      <c r="V66" s="15"/>
       <c r="W66" s="17"/>
-      <c r="X66" s="16"/>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="16"/>
+    </row>
+    <row r="67" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="63"/>
       <c r="B67" s="14" t="s">
         <v>72</v>
@@ -6265,25 +7224,36 @@
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+      <c r="H67" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
+      <c r="K67" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L67" s="13">
+        <v>4</v>
+      </c>
+      <c r="M67" s="65" t="s">
+        <v>548</v>
+      </c>
       <c r="N67" s="13"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="17"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="15"/>
       <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
+      <c r="V67" s="15"/>
       <c r="W67" s="17"/>
-      <c r="X67" s="16"/>
-    </row>
-    <row r="68" spans="1:24" customFormat="1">
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="16"/>
+    </row>
+    <row r="68" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="63"/>
       <c r="B68" s="14" t="s">
         <v>72</v>
@@ -6299,25 +7269,34 @@
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="13">
+        <v>1</v>
+      </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
+      <c r="K68" s="13">
+        <v>3</v>
+      </c>
+      <c r="L68" s="13">
+        <v>4</v>
+      </c>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="17"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="15"/>
       <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
+      <c r="V68" s="15"/>
       <c r="W68" s="17"/>
-      <c r="X68" s="16"/>
-    </row>
-    <row r="69" spans="1:24" customFormat="1">
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="16"/>
+    </row>
+    <row r="69" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="63"/>
       <c r="B69" s="14" t="s">
         <v>72</v>
@@ -6333,25 +7312,34 @@
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+      <c r="H69" s="13">
+        <v>0.75</v>
+      </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
+      <c r="K69" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L69" s="13">
+        <v>2</v>
+      </c>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="24"/>
       <c r="T69" s="14"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="11"/>
-    </row>
-    <row r="70" spans="1:24" customFormat="1">
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="11"/>
+    </row>
+    <row r="70" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="63"/>
       <c r="B70" s="14" t="s">
         <v>72</v>
@@ -6367,25 +7355,34 @@
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="H70" s="13">
+        <v>1</v>
+      </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
+      <c r="K70" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="L70" s="13">
+        <v>2</v>
+      </c>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="24"/>
       <c r="T70" s="14"/>
-      <c r="U70" s="24"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="24"/>
-      <c r="X70" s="11"/>
-    </row>
-    <row r="71" spans="1:24" customFormat="1">
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="11"/>
+    </row>
+    <row r="71" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="63"/>
       <c r="B71" s="14" t="s">
         <v>72</v>
@@ -6401,25 +7398,34 @@
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
+      <c r="H71" s="28">
+        <v>1</v>
+      </c>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
+      <c r="K71" s="28">
+        <v>2</v>
+      </c>
+      <c r="L71" s="28">
+        <v>3</v>
+      </c>
       <c r="M71" s="28"/>
       <c r="N71" s="28"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="24"/>
       <c r="T71" s="14"/>
-      <c r="U71" s="24"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="11"/>
-    </row>
-    <row r="72" spans="1:24" customFormat="1">
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="11"/>
+    </row>
+    <row r="72" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B72" s="14" t="s">
         <v>74</v>
       </c>
@@ -6434,25 +7440,34 @@
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
+      <c r="H72" s="13">
+        <v>0.5</v>
+      </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
+      <c r="K72" s="13">
+        <v>1</v>
+      </c>
       <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
+      <c r="M72" s="65" t="s">
+        <v>549</v>
+      </c>
       <c r="N72" s="13"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="24"/>
       <c r="T72" s="14"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="11"/>
-    </row>
-    <row r="73" spans="1:24" customFormat="1">
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="11"/>
+    </row>
+    <row r="73" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
         <v>275</v>
       </c>
@@ -6467,25 +7482,34 @@
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
+      <c r="H73" s="28">
+        <v>1</v>
+      </c>
       <c r="I73" s="28"/>
       <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
+      <c r="K73" s="28">
+        <v>2</v>
+      </c>
+      <c r="L73" s="28">
+        <v>3</v>
+      </c>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="11"/>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="11"/>
+    </row>
+    <row r="74" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
       <c r="D74" s="12"/>
@@ -6499,18 +7523,21 @@
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
       <c r="N74" s="28"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
       <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="24"/>
-      <c r="X74" s="11"/>
-    </row>
-    <row r="75" spans="1:24" customFormat="1">
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="11"/>
+    </row>
+    <row r="75" spans="1:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B75" s="11" t="s">
         <v>115</v>
       </c>
@@ -6530,18 +7557,21 @@
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
-      <c r="X75" s="11"/>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="11"/>
+    </row>
+    <row r="76" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B76" s="21" t="s">
         <v>117</v>
       </c>
@@ -6561,18 +7591,21 @@
       <c r="L76" s="28"/>
       <c r="M76" s="28"/>
       <c r="N76" s="28"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="14"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="6"/>
       <c r="S76" s="14"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="11"/>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="T76" s="24"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="24"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="11"/>
+    </row>
+    <row r="77" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B77" s="14" t="s">
         <v>119</v>
       </c>
@@ -6592,18 +7625,21 @@
       <c r="L77" s="28"/>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="11"/>
-    </row>
-    <row r="78" spans="1:24" customFormat="1">
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="24"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="11"/>
+    </row>
+    <row r="78" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="25" t="s">
         <v>106</v>
       </c>
@@ -6616,25 +7652,36 @@
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
+      <c r="H78" s="23">
+        <v>1</v>
+      </c>
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
+      <c r="K78" s="23">
+        <v>2</v>
+      </c>
+      <c r="L78" s="23">
+        <v>3</v>
+      </c>
+      <c r="M78" s="33" t="s">
+        <v>550</v>
+      </c>
       <c r="N78" s="23"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="14"/>
       <c r="W78" s="14"/>
-      <c r="X78" s="11"/>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="11"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B79" s="25" t="s">
         <v>112</v>
       </c>
@@ -6654,18 +7701,21 @@
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
       <c r="N79" s="23"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="24"/>
-      <c r="V79" s="24"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
       <c r="W79" s="14"/>
-      <c r="X79" s="11"/>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="11"/>
+    </row>
+    <row r="80" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B80" s="14" t="s">
         <v>112</v>
       </c>
@@ -6685,18 +7735,21 @@
       <c r="L80" s="28"/>
       <c r="M80" s="28"/>
       <c r="N80" s="28"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="11"/>
-    </row>
-    <row r="81" spans="2:24" customFormat="1">
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="24"/>
+      <c r="AA80" s="11"/>
+    </row>
+    <row r="81" spans="2:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="25" t="s">
         <v>122</v>
       </c>
@@ -6718,18 +7771,21 @@
       <c r="L81" s="37"/>
       <c r="M81" s="37"/>
       <c r="N81" s="37"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="24"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="24"/>
-      <c r="X81" s="11"/>
-    </row>
-    <row r="82" spans="2:24" customFormat="1">
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="24"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
+      <c r="AA81" s="11"/>
+    </row>
+    <row r="82" spans="2:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="25" t="s">
         <v>122</v>
       </c>
@@ -6751,18 +7807,21 @@
       <c r="L82" s="23"/>
       <c r="M82" s="23"/>
       <c r="N82" s="23"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="24"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="24"/>
-      <c r="X82" s="11"/>
-    </row>
-    <row r="83" spans="2:24" ht="8" customHeight="1">
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="24"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
+      <c r="AA82" s="11"/>
+    </row>
+    <row r="83" spans="2:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="60"/>
       <c r="C83" s="61"/>
       <c r="D83" s="61"/>
@@ -6785,9 +7844,12 @@
       <c r="U83" s="61"/>
       <c r="V83" s="61"/>
       <c r="W83" s="61"/>
-      <c r="X83" s="62"/>
-    </row>
-    <row r="84" spans="2:24">
+      <c r="X83" s="61"/>
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="61"/>
+      <c r="AA83" s="62"/>
+    </row>
+    <row r="84" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B84" s="11" t="s">
         <v>206</v>
       </c>
@@ -6807,18 +7869,21 @@
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
       <c r="N84" s="28"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="24"/>
-      <c r="X84" s="11"/>
-    </row>
-    <row r="85" spans="2:24">
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="24"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="24"/>
+      <c r="AA84" s="11"/>
+    </row>
+    <row r="85" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B85" s="11" t="s">
         <v>206</v>
       </c>
@@ -6833,25 +7898,34 @@
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
+      <c r="H85" s="28">
+        <v>9</v>
+      </c>
       <c r="I85" s="28"/>
       <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
+      <c r="K85" s="28">
+        <v>37.5</v>
+      </c>
+      <c r="L85" s="28">
+        <v>75</v>
+      </c>
       <c r="M85" s="28"/>
       <c r="N85" s="28"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="24"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="33"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
       <c r="V85" s="14"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="11"/>
-    </row>
-    <row r="86" spans="2:24" customFormat="1">
+      <c r="W85" s="6"/>
+      <c r="X85" s="24"/>
+      <c r="Y85" s="14"/>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="11"/>
+    </row>
+    <row r="86" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B86" s="11" t="s">
         <v>206</v>
       </c>
@@ -6866,25 +7940,34 @@
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
+      <c r="H86" s="23">
+        <v>4</v>
+      </c>
       <c r="I86" s="23"/>
       <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
+      <c r="K86" s="23">
+        <v>18.75</v>
+      </c>
+      <c r="L86" s="23">
+        <v>37.5</v>
+      </c>
       <c r="M86" s="23"/>
       <c r="N86" s="23"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="33"/>
       <c r="T86" s="14"/>
-      <c r="U86" s="24"/>
+      <c r="U86" s="14"/>
       <c r="V86" s="14"/>
       <c r="W86" s="14"/>
-      <c r="X86" s="11"/>
-    </row>
-    <row r="87" spans="2:24">
+      <c r="X86" s="24"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="11"/>
+    </row>
+    <row r="87" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B87" s="11" t="s">
         <v>206</v>
       </c>
@@ -6899,25 +7982,34 @@
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
+      <c r="H87" s="23">
+        <v>2</v>
+      </c>
       <c r="I87" s="23"/>
       <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
+      <c r="K87" s="23">
+        <v>3</v>
+      </c>
+      <c r="L87" s="23">
+        <v>5</v>
+      </c>
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="33"/>
       <c r="T87" s="14"/>
-      <c r="U87" s="24"/>
+      <c r="U87" s="14"/>
       <c r="V87" s="14"/>
       <c r="W87" s="14"/>
-      <c r="X87" s="11"/>
-    </row>
-    <row r="88" spans="2:24">
+      <c r="X87" s="24"/>
+      <c r="Y87" s="14"/>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="11"/>
+    </row>
+    <row r="88" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B88" s="11" t="s">
         <v>206</v>
       </c>
@@ -6932,25 +8024,34 @@
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="H88" s="23">
+        <v>0.5</v>
+      </c>
       <c r="I88" s="23"/>
       <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
+      <c r="K88" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L88" s="23">
+        <v>0.5</v>
+      </c>
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="33"/>
       <c r="T88" s="14"/>
-      <c r="U88" s="24"/>
+      <c r="U88" s="14"/>
       <c r="V88" s="14"/>
       <c r="W88" s="14"/>
-      <c r="X88" s="11"/>
-    </row>
-    <row r="89" spans="2:24">
+      <c r="X88" s="24"/>
+      <c r="Y88" s="14"/>
+      <c r="Z88" s="14"/>
+      <c r="AA88" s="11"/>
+    </row>
+    <row r="89" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B89" s="11" t="s">
         <v>206</v>
       </c>
@@ -6965,25 +8066,34 @@
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
+      <c r="H89" s="23">
+        <v>0.75</v>
+      </c>
       <c r="I89" s="23"/>
       <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
+      <c r="K89" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="L89" s="23">
+        <v>1</v>
+      </c>
       <c r="M89" s="23"/>
       <c r="N89" s="23"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="33"/>
       <c r="T89" s="14"/>
-      <c r="U89" s="24"/>
+      <c r="U89" s="14"/>
       <c r="V89" s="14"/>
       <c r="W89" s="14"/>
-      <c r="X89" s="11"/>
-    </row>
-    <row r="90" spans="2:24">
+      <c r="X89" s="24"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="11"/>
+    </row>
+    <row r="90" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B90" s="11" t="s">
         <v>206</v>
       </c>
@@ -6998,25 +8108,34 @@
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
+      <c r="H90" s="23">
+        <v>0.75</v>
+      </c>
       <c r="I90" s="23"/>
       <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
+      <c r="K90" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="L90" s="23">
+        <v>1</v>
+      </c>
       <c r="M90" s="23"/>
       <c r="N90" s="23"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="33"/>
       <c r="T90" s="14"/>
-      <c r="U90" s="24"/>
+      <c r="U90" s="14"/>
       <c r="V90" s="14"/>
       <c r="W90" s="14"/>
-      <c r="X90" s="11"/>
-    </row>
-    <row r="91" spans="2:24">
+      <c r="X90" s="24"/>
+      <c r="Y90" s="14"/>
+      <c r="Z90" s="14"/>
+      <c r="AA90" s="11"/>
+    </row>
+    <row r="91" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B91" s="11" t="s">
         <v>206</v>
       </c>
@@ -7031,25 +8150,34 @@
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
+      <c r="H91" s="23">
+        <v>1</v>
+      </c>
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
+      <c r="K91" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="L91" s="23">
+        <v>2</v>
+      </c>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="33"/>
       <c r="T91" s="14"/>
-      <c r="U91" s="24"/>
+      <c r="U91" s="14"/>
       <c r="V91" s="14"/>
       <c r="W91" s="14"/>
-      <c r="X91" s="11"/>
-    </row>
-    <row r="92" spans="2:24">
+      <c r="X91" s="24"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="11"/>
+    </row>
+    <row r="92" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B92" s="11" t="s">
         <v>206</v>
       </c>
@@ -7071,18 +8199,21 @@
       <c r="L92" s="23"/>
       <c r="M92" s="23"/>
       <c r="N92" s="23"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="33"/>
       <c r="T92" s="14"/>
-      <c r="U92" s="24"/>
+      <c r="U92" s="14"/>
       <c r="V92" s="14"/>
       <c r="W92" s="14"/>
-      <c r="X92" s="11"/>
-    </row>
-    <row r="93" spans="2:24">
+      <c r="X92" s="24"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="11"/>
+    </row>
+    <row r="93" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B93" s="11" t="s">
         <v>206</v>
       </c>
@@ -7097,25 +8228,34 @@
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
+      <c r="H93" s="23">
+        <v>1</v>
+      </c>
       <c r="I93" s="23"/>
       <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
+      <c r="K93" s="23">
+        <v>1</v>
+      </c>
+      <c r="L93" s="23">
+        <v>2</v>
+      </c>
+      <c r="M93" s="33"/>
       <c r="N93" s="23"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="33"/>
       <c r="T93" s="14"/>
-      <c r="U93" s="24"/>
+      <c r="U93" s="14"/>
       <c r="V93" s="14"/>
       <c r="W93" s="14"/>
-      <c r="X93" s="11"/>
-    </row>
-    <row r="94" spans="2:24" customFormat="1">
+      <c r="X93" s="24"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="11"/>
+    </row>
+    <row r="94" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B94" s="11" t="s">
         <v>206</v>
       </c>
@@ -7130,25 +8270,34 @@
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
+      <c r="H94" s="23">
+        <v>0.75</v>
+      </c>
       <c r="I94" s="23"/>
       <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
+      <c r="K94" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="L94" s="23">
+        <v>1</v>
+      </c>
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="33"/>
       <c r="T94" s="14"/>
-      <c r="U94" s="24"/>
+      <c r="U94" s="14"/>
       <c r="V94" s="14"/>
       <c r="W94" s="14"/>
-      <c r="X94" s="11"/>
-    </row>
-    <row r="95" spans="2:24" customFormat="1">
+      <c r="X94" s="24"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="11"/>
+    </row>
+    <row r="95" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B95" s="11" t="s">
         <v>206</v>
       </c>
@@ -7163,25 +8312,34 @@
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
+      <c r="H95" s="23">
+        <v>1</v>
+      </c>
       <c r="I95" s="23"/>
       <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
+      <c r="K95" s="23">
+        <v>1</v>
+      </c>
+      <c r="L95" s="23">
+        <v>2</v>
+      </c>
       <c r="M95" s="23"/>
       <c r="N95" s="23"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="33"/>
       <c r="T95" s="14"/>
-      <c r="U95" s="24"/>
+      <c r="U95" s="14"/>
       <c r="V95" s="14"/>
       <c r="W95" s="14"/>
-      <c r="X95" s="11"/>
-    </row>
-    <row r="96" spans="2:24" customFormat="1">
+      <c r="X95" s="24"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="11"/>
+    </row>
+    <row r="96" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B96" s="11" t="s">
         <v>206</v>
       </c>
@@ -7203,18 +8361,21 @@
       <c r="L96" s="23"/>
       <c r="M96" s="23"/>
       <c r="N96" s="23"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="33"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="33"/>
       <c r="T96" s="14"/>
-      <c r="U96" s="24"/>
+      <c r="U96" s="14"/>
       <c r="V96" s="14"/>
       <c r="W96" s="14"/>
-      <c r="X96" s="11"/>
-    </row>
-    <row r="97" spans="2:24">
+      <c r="X96" s="24"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="11"/>
+    </row>
+    <row r="97" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B97" s="11" t="s">
         <v>206</v>
       </c>
@@ -7229,25 +8390,34 @@
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
+      <c r="H97" s="28">
+        <v>2</v>
+      </c>
       <c r="I97" s="28"/>
       <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
+      <c r="K97" s="28">
+        <v>4</v>
+      </c>
+      <c r="L97" s="28">
+        <v>5</v>
+      </c>
       <c r="M97" s="28"/>
       <c r="N97" s="28"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="33"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
+      <c r="O97" s="28"/>
+      <c r="P97" s="28"/>
+      <c r="Q97" s="28"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="33"/>
       <c r="T97" s="14"/>
-      <c r="U97" s="24"/>
-      <c r="V97" s="24"/>
-      <c r="W97" s="24"/>
-      <c r="X97" s="11"/>
-    </row>
-    <row r="98" spans="2:24">
+      <c r="U97" s="14"/>
+      <c r="V97" s="14"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="24"/>
+      <c r="Y97" s="24"/>
+      <c r="Z97" s="24"/>
+      <c r="AA97" s="11"/>
+    </row>
+    <row r="98" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B98" s="11" t="s">
         <v>206</v>
       </c>
@@ -7262,25 +8432,34 @@
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
+      <c r="H98" s="28">
+        <v>2</v>
+      </c>
       <c r="I98" s="28"/>
       <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
+      <c r="K98" s="28">
+        <v>4</v>
+      </c>
+      <c r="L98" s="28">
+        <v>5</v>
+      </c>
       <c r="M98" s="28"/>
       <c r="N98" s="28"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="33"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
+      <c r="O98" s="28"/>
+      <c r="P98" s="28"/>
+      <c r="Q98" s="28"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="33"/>
       <c r="T98" s="14"/>
-      <c r="U98" s="24"/>
+      <c r="U98" s="14"/>
       <c r="V98" s="14"/>
       <c r="W98" s="14"/>
-      <c r="X98" s="11"/>
-    </row>
-    <row r="99" spans="2:24">
+      <c r="X98" s="24"/>
+      <c r="Y98" s="14"/>
+      <c r="Z98" s="14"/>
+      <c r="AA98" s="11"/>
+    </row>
+    <row r="99" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B99" s="11" t="s">
         <v>206</v>
       </c>
@@ -7295,25 +8474,34 @@
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
+      <c r="H99" s="28">
+        <v>2</v>
+      </c>
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
+      <c r="K99" s="28">
+        <v>4</v>
+      </c>
+      <c r="L99" s="28">
+        <v>5</v>
+      </c>
       <c r="M99" s="28"/>
       <c r="N99" s="28"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="33"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
+      <c r="O99" s="28"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="33"/>
       <c r="T99" s="14"/>
-      <c r="U99" s="24"/>
+      <c r="U99" s="14"/>
       <c r="V99" s="14"/>
       <c r="W99" s="14"/>
-      <c r="X99" s="11"/>
-    </row>
-    <row r="100" spans="2:24" customFormat="1">
+      <c r="X99" s="24"/>
+      <c r="Y99" s="14"/>
+      <c r="Z99" s="14"/>
+      <c r="AA99" s="11"/>
+    </row>
+    <row r="100" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B100" s="11" t="s">
         <v>206</v>
       </c>
@@ -7328,25 +8516,34 @@
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
+      <c r="H100" s="23">
+        <v>0.5</v>
+      </c>
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
+      <c r="K100" s="23">
+        <v>1</v>
+      </c>
+      <c r="L100" s="23">
+        <v>1</v>
+      </c>
       <c r="M100" s="23"/>
       <c r="N100" s="23"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="24"/>
-      <c r="V100" s="24"/>
-      <c r="W100" s="24"/>
-      <c r="X100" s="11"/>
-    </row>
-    <row r="101" spans="2:24" customFormat="1">
+      <c r="O100" s="23"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="24"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="14"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="24"/>
+      <c r="Y100" s="24"/>
+      <c r="Z100" s="24"/>
+      <c r="AA100" s="11"/>
+    </row>
+    <row r="101" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B101" s="11" t="s">
         <v>206</v>
       </c>
@@ -7361,25 +8558,34 @@
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
+      <c r="H101" s="28">
+        <v>1</v>
+      </c>
       <c r="I101" s="28"/>
       <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
+      <c r="K101" s="28">
+        <v>1</v>
+      </c>
+      <c r="L101" s="28">
+        <v>1.5</v>
+      </c>
       <c r="M101" s="28"/>
       <c r="N101" s="28"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-      <c r="R101" s="14"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="24"/>
-      <c r="U101" s="24"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="16"/>
-    </row>
-    <row r="102" spans="2:24">
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="28"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="40"/>
+      <c r="W101" s="24"/>
+      <c r="X101" s="24"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
+      <c r="AA101" s="16"/>
+    </row>
+    <row r="102" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B102" s="11" t="s">
         <v>235</v>
       </c>
@@ -7401,18 +8607,21 @@
       <c r="L102" s="23"/>
       <c r="M102" s="23"/>
       <c r="N102" s="23"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="33"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="14"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="24"/>
-      <c r="V102" s="24"/>
-      <c r="W102" s="24"/>
-      <c r="X102" s="11"/>
-    </row>
-    <row r="103" spans="2:24">
+      <c r="O102" s="23"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="33"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="14"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="24"/>
+      <c r="Y102" s="24"/>
+      <c r="Z102" s="24"/>
+      <c r="AA102" s="11"/>
+    </row>
+    <row r="103" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B103" s="11" t="s">
         <v>235</v>
       </c>
@@ -7434,18 +8643,21 @@
       <c r="L103" s="18"/>
       <c r="M103" s="18"/>
       <c r="N103" s="18"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="40"/>
-      <c r="Q103" s="40"/>
-      <c r="R103" s="14"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="14"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="40"/>
+      <c r="T103" s="40"/>
       <c r="U103" s="14"/>
       <c r="V103" s="14"/>
       <c r="W103" s="14"/>
-      <c r="X103" s="16"/>
-    </row>
-    <row r="104" spans="2:24">
+      <c r="X103" s="14"/>
+      <c r="Y103" s="14"/>
+      <c r="Z103" s="14"/>
+      <c r="AA103" s="16"/>
+    </row>
+    <row r="104" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B104" s="11" t="s">
         <v>235</v>
       </c>
@@ -7467,18 +8679,21 @@
       <c r="L104" s="18"/>
       <c r="M104" s="18"/>
       <c r="N104" s="18"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="6"/>
       <c r="S104" s="14"/>
       <c r="T104" s="14"/>
       <c r="U104" s="14"/>
       <c r="V104" s="14"/>
       <c r="W104" s="14"/>
-      <c r="X104" s="16"/>
-    </row>
-    <row r="105" spans="2:24" customFormat="1">
+      <c r="X104" s="14"/>
+      <c r="Y104" s="14"/>
+      <c r="Z104" s="14"/>
+      <c r="AA104" s="16"/>
+    </row>
+    <row r="105" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B105" s="11" t="s">
         <v>235</v>
       </c>
@@ -7500,18 +8715,21 @@
       <c r="L105" s="23"/>
       <c r="M105" s="23"/>
       <c r="N105" s="23"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="33"/>
-      <c r="Q105" s="24"/>
-      <c r="R105" s="14"/>
-      <c r="S105" s="14"/>
-      <c r="T105" s="6"/>
-      <c r="U105" s="24"/>
-      <c r="V105" s="24"/>
-      <c r="W105" s="24"/>
-      <c r="X105" s="11"/>
-    </row>
-    <row r="106" spans="2:24" customFormat="1">
+      <c r="O105" s="23"/>
+      <c r="P105" s="23"/>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="33"/>
+      <c r="T105" s="24"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="14"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="24"/>
+      <c r="Z105" s="24"/>
+      <c r="AA105" s="11"/>
+    </row>
+    <row r="106" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B106" s="11" t="s">
         <v>235</v>
       </c>
@@ -7533,18 +8751,21 @@
       <c r="L106" s="18"/>
       <c r="M106" s="18"/>
       <c r="N106" s="18"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="24"/>
-      <c r="R106" s="14"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="6"/>
       <c r="S106" s="14"/>
-      <c r="T106" s="6"/>
-      <c r="U106" s="24"/>
-      <c r="V106" s="24"/>
-      <c r="W106" s="24"/>
-      <c r="X106" s="11"/>
-    </row>
-    <row r="107" spans="2:24" customFormat="1">
+      <c r="T106" s="24"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="14"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="24"/>
+      <c r="Y106" s="24"/>
+      <c r="Z106" s="24"/>
+      <c r="AA106" s="11"/>
+    </row>
+    <row r="107" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B107" s="11" t="s">
         <v>235</v>
       </c>
@@ -7566,18 +8787,21 @@
       <c r="L107" s="18"/>
       <c r="M107" s="18"/>
       <c r="N107" s="18"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="24"/>
-      <c r="R107" s="14"/>
-      <c r="S107" s="14"/>
-      <c r="T107" s="6"/>
-      <c r="U107" s="24"/>
-      <c r="V107" s="24"/>
-      <c r="W107" s="24"/>
-      <c r="X107" s="11"/>
-    </row>
-    <row r="108" spans="2:24" customFormat="1">
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="24"/>
+      <c r="T107" s="24"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="14"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="24"/>
+      <c r="Y107" s="24"/>
+      <c r="Z107" s="24"/>
+      <c r="AA107" s="11"/>
+    </row>
+    <row r="108" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
         <v>235</v>
       </c>
@@ -7599,18 +8823,21 @@
       <c r="L108" s="18"/>
       <c r="M108" s="18"/>
       <c r="N108" s="18"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="40"/>
-      <c r="Q108" s="40"/>
-      <c r="R108" s="14"/>
-      <c r="S108" s="14"/>
-      <c r="T108" s="14"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="40"/>
+      <c r="T108" s="40"/>
       <c r="U108" s="14"/>
       <c r="V108" s="14"/>
       <c r="W108" s="14"/>
-      <c r="X108" s="16"/>
-    </row>
-    <row r="109" spans="2:24">
+      <c r="X108" s="14"/>
+      <c r="Y108" s="14"/>
+      <c r="Z108" s="14"/>
+      <c r="AA108" s="16"/>
+    </row>
+    <row r="109" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B109" s="11" t="s">
         <v>235</v>
       </c>
@@ -7632,18 +8859,21 @@
       <c r="L109" s="18"/>
       <c r="M109" s="18"/>
       <c r="N109" s="18"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="40"/>
-      <c r="Q109" s="40"/>
-      <c r="R109" s="14"/>
-      <c r="S109" s="14"/>
-      <c r="T109" s="14"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="40"/>
+      <c r="T109" s="40"/>
       <c r="U109" s="14"/>
       <c r="V109" s="14"/>
       <c r="W109" s="14"/>
-      <c r="X109" s="16"/>
-    </row>
-    <row r="110" spans="2:24">
+      <c r="X109" s="14"/>
+      <c r="Y109" s="14"/>
+      <c r="Z109" s="14"/>
+      <c r="AA109" s="16"/>
+    </row>
+    <row r="110" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B110" s="11" t="s">
         <v>235</v>
       </c>
@@ -7665,18 +8895,21 @@
       <c r="L110" s="18"/>
       <c r="M110" s="18"/>
       <c r="N110" s="18"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="40"/>
-      <c r="Q110" s="40"/>
-      <c r="R110" s="40"/>
-      <c r="S110" s="14"/>
-      <c r="T110" s="14"/>
-      <c r="U110" s="14"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="40"/>
+      <c r="T110" s="40"/>
+      <c r="U110" s="40"/>
       <c r="V110" s="14"/>
       <c r="W110" s="14"/>
-      <c r="X110" s="16"/>
-    </row>
-    <row r="111" spans="2:24">
+      <c r="X110" s="14"/>
+      <c r="Y110" s="14"/>
+      <c r="Z110" s="14"/>
+      <c r="AA110" s="16"/>
+    </row>
+    <row r="111" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B111" s="11" t="s">
         <v>235</v>
       </c>
@@ -7698,18 +8931,21 @@
       <c r="L111" s="18"/>
       <c r="M111" s="18"/>
       <c r="N111" s="18"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="40"/>
-      <c r="Q111" s="40"/>
-      <c r="R111" s="14"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="6"/>
       <c r="S111" s="40"/>
       <c r="T111" s="40"/>
       <c r="U111" s="14"/>
-      <c r="V111" s="14"/>
-      <c r="W111" s="14"/>
-      <c r="X111" s="16"/>
-    </row>
-    <row r="112" spans="2:24" customFormat="1">
+      <c r="V111" s="40"/>
+      <c r="W111" s="40"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="14"/>
+      <c r="AA111" s="16"/>
+    </row>
+    <row r="112" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B112" s="11" t="s">
         <v>235</v>
       </c>
@@ -7731,18 +8967,21 @@
       <c r="L112" s="18"/>
       <c r="M112" s="18"/>
       <c r="N112" s="18"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="40"/>
-      <c r="Q112" s="40"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
       <c r="R112" s="14"/>
-      <c r="S112" s="14"/>
-      <c r="T112" s="14"/>
+      <c r="S112" s="40"/>
+      <c r="T112" s="40"/>
       <c r="U112" s="14"/>
       <c r="V112" s="14"/>
       <c r="W112" s="14"/>
-      <c r="X112" s="16"/>
-    </row>
-    <row r="113" spans="2:24">
+      <c r="X112" s="14"/>
+      <c r="Y112" s="14"/>
+      <c r="Z112" s="14"/>
+      <c r="AA112" s="16"/>
+    </row>
+    <row r="113" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B113" s="11" t="s">
         <v>235</v>
       </c>
@@ -7764,18 +9003,21 @@
       <c r="L113" s="18"/>
       <c r="M113" s="18"/>
       <c r="N113" s="18"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="40"/>
-      <c r="Q113" s="40"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
       <c r="R113" s="14"/>
-      <c r="S113" s="14"/>
-      <c r="T113" s="14"/>
+      <c r="S113" s="40"/>
+      <c r="T113" s="40"/>
       <c r="U113" s="14"/>
       <c r="V113" s="14"/>
       <c r="W113" s="14"/>
-      <c r="X113" s="16"/>
-    </row>
-    <row r="114" spans="2:24">
+      <c r="X113" s="14"/>
+      <c r="Y113" s="14"/>
+      <c r="Z113" s="14"/>
+      <c r="AA113" s="16"/>
+    </row>
+    <row r="114" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B114" s="11" t="s">
         <v>235</v>
       </c>
@@ -7797,18 +9039,21 @@
       <c r="L114" s="18"/>
       <c r="M114" s="18"/>
       <c r="N114" s="18"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="40"/>
-      <c r="Q114" s="40"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
       <c r="R114" s="14"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="14"/>
+      <c r="S114" s="40"/>
+      <c r="T114" s="40"/>
       <c r="U114" s="14"/>
       <c r="V114" s="14"/>
       <c r="W114" s="14"/>
-      <c r="X114" s="16"/>
-    </row>
-    <row r="115" spans="2:24" customFormat="1">
+      <c r="X114" s="14"/>
+      <c r="Y114" s="14"/>
+      <c r="Z114" s="14"/>
+      <c r="AA114" s="16"/>
+    </row>
+    <row r="115" spans="2:27" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
         <v>235</v>
       </c>
@@ -7830,18 +9075,21 @@
       <c r="L115" s="18"/>
       <c r="M115" s="18"/>
       <c r="N115" s="18"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="14"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
       <c r="R115" s="14"/>
       <c r="S115" s="14"/>
       <c r="T115" s="14"/>
       <c r="U115" s="14"/>
       <c r="V115" s="14"/>
       <c r="W115" s="14"/>
-      <c r="X115" s="16"/>
-    </row>
-    <row r="116" spans="2:24">
+      <c r="X115" s="14"/>
+      <c r="Y115" s="14"/>
+      <c r="Z115" s="14"/>
+      <c r="AA115" s="16"/>
+    </row>
+    <row r="116" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B116" s="11" t="s">
         <v>235</v>
       </c>
@@ -7861,18 +9109,21 @@
       <c r="L116" s="18"/>
       <c r="M116" s="18"/>
       <c r="N116" s="18"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="14"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
       <c r="R116" s="14"/>
       <c r="S116" s="14"/>
       <c r="T116" s="14"/>
       <c r="U116" s="14"/>
       <c r="V116" s="14"/>
       <c r="W116" s="14"/>
-      <c r="X116" s="16"/>
-    </row>
-    <row r="117" spans="2:24">
+      <c r="X116" s="14"/>
+      <c r="Y116" s="14"/>
+      <c r="Z116" s="14"/>
+      <c r="AA116" s="16"/>
+    </row>
+    <row r="117" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B117" s="11" t="s">
         <v>235</v>
       </c>
@@ -7892,18 +9143,21 @@
       <c r="L117" s="18"/>
       <c r="M117" s="18"/>
       <c r="N117" s="18"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="14"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
       <c r="R117" s="14"/>
       <c r="S117" s="14"/>
       <c r="T117" s="14"/>
       <c r="U117" s="14"/>
       <c r="V117" s="14"/>
       <c r="W117" s="14"/>
-      <c r="X117" s="16"/>
-    </row>
-    <row r="118" spans="2:24">
+      <c r="X117" s="14"/>
+      <c r="Y117" s="14"/>
+      <c r="Z117" s="14"/>
+      <c r="AA117" s="16"/>
+    </row>
+    <row r="118" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B118" s="11" t="s">
         <v>235</v>
       </c>
@@ -7923,18 +9177,21 @@
       <c r="L118" s="18"/>
       <c r="M118" s="18"/>
       <c r="N118" s="18"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="14"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
       <c r="R118" s="14"/>
       <c r="S118" s="14"/>
       <c r="T118" s="14"/>
       <c r="U118" s="14"/>
       <c r="V118" s="14"/>
       <c r="W118" s="14"/>
-      <c r="X118" s="16"/>
-    </row>
-    <row r="119" spans="2:24">
+      <c r="X118" s="14"/>
+      <c r="Y118" s="14"/>
+      <c r="Z118" s="14"/>
+      <c r="AA118" s="16"/>
+    </row>
+    <row r="119" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B119" s="11" t="s">
         <v>235</v>
       </c>
@@ -7954,18 +9211,21 @@
       <c r="L119" s="44"/>
       <c r="M119" s="44"/>
       <c r="N119" s="44"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
+      <c r="O119" s="44"/>
+      <c r="P119" s="44"/>
+      <c r="Q119" s="44"/>
       <c r="R119" s="14"/>
       <c r="S119" s="14"/>
       <c r="T119" s="14"/>
       <c r="U119" s="14"/>
       <c r="V119" s="14"/>
       <c r="W119" s="14"/>
-      <c r="X119" s="45"/>
-    </row>
-    <row r="120" spans="2:24">
+      <c r="X119" s="14"/>
+      <c r="Y119" s="14"/>
+      <c r="Z119" s="14"/>
+      <c r="AA119" s="45"/>
+    </row>
+    <row r="120" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B120" s="11" t="s">
         <v>235</v>
       </c>
@@ -7978,25 +9238,34 @@
       <c r="E120" s="18"/>
       <c r="F120" s="18"/>
       <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
+      <c r="H120" s="18">
+        <v>2</v>
+      </c>
       <c r="I120" s="18"/>
       <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
+      <c r="K120" s="18">
+        <v>2</v>
+      </c>
+      <c r="L120" s="18">
+        <v>3</v>
+      </c>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
       <c r="R120" s="14"/>
       <c r="S120" s="14"/>
       <c r="T120" s="14"/>
       <c r="U120" s="14"/>
       <c r="V120" s="14"/>
       <c r="W120" s="14"/>
-      <c r="X120" s="16"/>
-    </row>
-    <row r="121" spans="2:24">
+      <c r="X120" s="14"/>
+      <c r="Y120" s="14"/>
+      <c r="Z120" s="14"/>
+      <c r="AA120" s="16"/>
+    </row>
+    <row r="121" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B121" s="11" t="s">
         <v>235</v>
       </c>
@@ -8009,25 +9278,34 @@
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
+      <c r="H121" s="18">
+        <v>0.5</v>
+      </c>
       <c r="I121" s="18"/>
       <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
+      <c r="K121" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="L121" s="18">
+        <v>1</v>
+      </c>
       <c r="M121" s="18"/>
       <c r="N121" s="18"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="40"/>
-      <c r="Q121" s="40"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
       <c r="R121" s="14"/>
-      <c r="S121" s="14"/>
-      <c r="T121" s="14"/>
+      <c r="S121" s="40"/>
+      <c r="T121" s="40"/>
       <c r="U121" s="14"/>
       <c r="V121" s="14"/>
       <c r="W121" s="14"/>
-      <c r="X121" s="16"/>
-    </row>
-    <row r="122" spans="2:24">
+      <c r="X121" s="14"/>
+      <c r="Y121" s="14"/>
+      <c r="Z121" s="14"/>
+      <c r="AA121" s="16"/>
+    </row>
+    <row r="122" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B122" s="14" t="s">
         <v>250</v>
       </c>
@@ -8043,18 +9321,21 @@
       <c r="L122" s="18"/>
       <c r="M122" s="18"/>
       <c r="N122" s="18"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="40"/>
-      <c r="Q122" s="40"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
       <c r="R122" s="14"/>
-      <c r="S122" s="14"/>
-      <c r="T122" s="14"/>
+      <c r="S122" s="40"/>
+      <c r="T122" s="40"/>
       <c r="U122" s="14"/>
       <c r="V122" s="14"/>
       <c r="W122" s="14"/>
-      <c r="X122" s="16"/>
-    </row>
-    <row r="123" spans="2:24">
+      <c r="X122" s="14"/>
+      <c r="Y122" s="14"/>
+      <c r="Z122" s="14"/>
+      <c r="AA122" s="16"/>
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>251</v>
       </c>
@@ -8070,43 +9351,60 @@
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
       <c r="N123" s="18"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
       <c r="R123" s="14"/>
       <c r="S123" s="14"/>
       <c r="T123" s="14"/>
       <c r="U123" s="14"/>
       <c r="V123" s="14"/>
       <c r="W123" s="14"/>
-      <c r="X123" s="16"/>
-    </row>
-    <row r="124" spans="2:24">
+      <c r="X123" s="14"/>
+      <c r="Y123" s="14"/>
+      <c r="Z123" s="14"/>
+      <c r="AA123" s="16"/>
+    </row>
+    <row r="124" spans="2:27" ht="214.5" x14ac:dyDescent="0.3">
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="16"/>
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
       <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="H124" s="18">
+        <f>SUM(H1:H123)*1.5</f>
+        <v>94.5</v>
+      </c>
       <c r="I124" s="18"/>
       <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
+      <c r="K124" s="18">
+        <f>SUM(K1:K123)*1.3</f>
+        <v>195</v>
+      </c>
+      <c r="L124" s="18">
+        <f>SUM(L1:L123)*2</f>
+        <v>503.5</v>
+      </c>
+      <c r="M124" s="66" t="s">
+        <v>551</v>
+      </c>
       <c r="N124" s="18"/>
-      <c r="O124" s="14"/>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
       <c r="R124" s="14"/>
       <c r="S124" s="14"/>
       <c r="T124" s="14"/>
       <c r="U124" s="14"/>
       <c r="V124" s="14"/>
       <c r="W124" s="14"/>
-      <c r="X124" s="16"/>
-    </row>
-    <row r="125" spans="2:24">
+      <c r="X124" s="14"/>
+      <c r="Y124" s="14"/>
+      <c r="Z124" s="14"/>
+      <c r="AA124" s="16"/>
+    </row>
+    <row r="125" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
       <c r="D125" s="27"/>
@@ -8120,18 +9418,21 @@
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
-      <c r="O125" s="14"/>
-      <c r="P125" s="40"/>
-      <c r="Q125" s="40"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
       <c r="R125" s="14"/>
-      <c r="S125" s="14"/>
-      <c r="T125" s="14"/>
+      <c r="S125" s="40"/>
+      <c r="T125" s="40"/>
       <c r="U125" s="14"/>
       <c r="V125" s="14"/>
       <c r="W125" s="14"/>
-      <c r="X125" s="16"/>
-    </row>
-    <row r="126" spans="2:24">
+      <c r="X125" s="14"/>
+      <c r="Y125" s="14"/>
+      <c r="Z125" s="14"/>
+      <c r="AA125" s="16"/>
+    </row>
+    <row r="126" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
       <c r="D126" s="42"/>
@@ -8145,18 +9446,21 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
-      <c r="O126" s="14"/>
-      <c r="P126" s="14"/>
-      <c r="Q126" s="14"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
       <c r="R126" s="14"/>
       <c r="S126" s="14"/>
       <c r="T126" s="14"/>
       <c r="U126" s="14"/>
       <c r="V126" s="14"/>
       <c r="W126" s="14"/>
-      <c r="X126" s="16"/>
-    </row>
-    <row r="127" spans="2:24">
+      <c r="X126" s="14"/>
+      <c r="Y126" s="14"/>
+      <c r="Z126" s="14"/>
+      <c r="AA126" s="16"/>
+    </row>
+    <row r="127" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
       <c r="D127" s="16"/>
@@ -8170,18 +9474,21 @@
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
-      <c r="O127" s="14"/>
-      <c r="P127" s="14"/>
-      <c r="Q127" s="14"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
       <c r="R127" s="14"/>
       <c r="S127" s="14"/>
       <c r="T127" s="14"/>
       <c r="U127" s="14"/>
       <c r="V127" s="14"/>
       <c r="W127" s="14"/>
-      <c r="X127" s="16"/>
-    </row>
-    <row r="128" spans="2:24">
+      <c r="X127" s="14"/>
+      <c r="Y127" s="14"/>
+      <c r="Z127" s="14"/>
+      <c r="AA127" s="16"/>
+    </row>
+    <row r="128" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
       <c r="D128" s="27"/>
@@ -8195,18 +9502,21 @@
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
       <c r="N128" s="18"/>
-      <c r="O128" s="14"/>
-      <c r="P128" s="40"/>
-      <c r="Q128" s="40"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
       <c r="R128" s="14"/>
-      <c r="S128" s="14"/>
-      <c r="T128" s="14"/>
+      <c r="S128" s="40"/>
+      <c r="T128" s="40"/>
       <c r="U128" s="14"/>
       <c r="V128" s="14"/>
       <c r="W128" s="14"/>
-      <c r="X128" s="16"/>
-    </row>
-    <row r="129" spans="2:24">
+      <c r="X128" s="14"/>
+      <c r="Y128" s="14"/>
+      <c r="Z128" s="14"/>
+      <c r="AA128" s="16"/>
+    </row>
+    <row r="129" spans="2:27" ht="18" x14ac:dyDescent="0.35">
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
       <c r="D129" s="27"/>
@@ -8220,18 +9530,21 @@
       <c r="L129" s="18"/>
       <c r="M129" s="18"/>
       <c r="N129" s="18"/>
-      <c r="O129" s="14"/>
-      <c r="P129" s="40"/>
-      <c r="Q129" s="40"/>
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="18"/>
       <c r="R129" s="14"/>
-      <c r="S129" s="14"/>
-      <c r="T129" s="14"/>
+      <c r="S129" s="40"/>
+      <c r="T129" s="40"/>
       <c r="U129" s="14"/>
       <c r="V129" s="14"/>
       <c r="W129" s="14"/>
-      <c r="X129" s="16"/>
-    </row>
-    <row r="130" spans="2:24">
+      <c r="X129" s="14"/>
+      <c r="Y129" s="14"/>
+      <c r="Z129" s="14"/>
+      <c r="AA129" s="16"/>
+    </row>
+    <row r="130" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
@@ -8245,18 +9558,21 @@
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
-      <c r="O130" s="14"/>
-      <c r="P130" s="14"/>
-      <c r="Q130" s="14"/>
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="18"/>
       <c r="R130" s="14"/>
       <c r="S130" s="14"/>
       <c r="T130" s="14"/>
       <c r="U130" s="14"/>
       <c r="V130" s="14"/>
       <c r="W130" s="14"/>
-      <c r="X130" s="16"/>
-    </row>
-    <row r="131" spans="2:24">
+      <c r="X130" s="14"/>
+      <c r="Y130" s="14"/>
+      <c r="Z130" s="14"/>
+      <c r="AA130" s="16"/>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
       <c r="D131" s="16"/>
@@ -8270,18 +9586,21 @@
       <c r="L131" s="18"/>
       <c r="M131" s="18"/>
       <c r="N131" s="18"/>
-      <c r="O131" s="14"/>
-      <c r="P131" s="14"/>
-      <c r="Q131" s="14"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
       <c r="R131" s="14"/>
       <c r="S131" s="14"/>
       <c r="T131" s="14"/>
       <c r="U131" s="14"/>
       <c r="V131" s="14"/>
       <c r="W131" s="14"/>
-      <c r="X131" s="16"/>
-    </row>
-    <row r="132" spans="2:24">
+      <c r="X131" s="14"/>
+      <c r="Y131" s="14"/>
+      <c r="Z131" s="14"/>
+      <c r="AA131" s="16"/>
+    </row>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
       <c r="D132" s="16"/>
@@ -8295,18 +9614,21 @@
       <c r="L132" s="18"/>
       <c r="M132" s="18"/>
       <c r="N132" s="18"/>
-      <c r="O132" s="14"/>
-      <c r="P132" s="14"/>
-      <c r="Q132" s="14"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="18"/>
       <c r="R132" s="14"/>
       <c r="S132" s="14"/>
       <c r="T132" s="14"/>
       <c r="U132" s="14"/>
       <c r="V132" s="14"/>
       <c r="W132" s="14"/>
-      <c r="X132" s="16"/>
-    </row>
-    <row r="133" spans="2:24">
+      <c r="X132" s="14"/>
+      <c r="Y132" s="14"/>
+      <c r="Z132" s="14"/>
+      <c r="AA132" s="16"/>
+    </row>
+    <row r="133" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
       <c r="D133" s="16"/>
@@ -8320,129 +9642,207 @@
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
-      <c r="Q133" s="14"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
       <c r="R133" s="14"/>
       <c r="S133" s="14"/>
       <c r="T133" s="14"/>
       <c r="U133" s="14"/>
       <c r="V133" s="14"/>
       <c r="W133" s="14"/>
-      <c r="X133" s="16"/>
+      <c r="X133" s="14"/>
+      <c r="Y133" s="14"/>
+      <c r="Z133" s="14"/>
+      <c r="AA133" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X133"/>
+  <autoFilter ref="A3:AA133"/>
   <mergeCells count="4">
     <mergeCell ref="A4:A19"/>
-    <mergeCell ref="B83:X83"/>
+    <mergeCell ref="B83:AA83"/>
     <mergeCell ref="A21:A57"/>
     <mergeCell ref="A58:A71"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="X98:X99 W18:X18 X78 W79:X79 V100:X101 O6:R6 O16:P16 O17:Q17 S20:X20 O18:U18 S4:X5 O7:Q15 V6:X17 R7:R17 S6:T17 C108:C121 B103:B121 B83 X85:X86 V86:W86 B84:C86 V97:X97 B5:G14 E84:X84 B4:Q4 B20:P20 B102:X102 B122:X133 E108:X121 C103:X107 B78:V79 D85:U86 B80:X82 B97:U101 B87:X96 H6:O14 H5:Q5 B15:O18 B19:X19 B21:X77 B3:X3">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+  <conditionalFormatting sqref="AA98:AA99 Z18:AA18 AA78 Z79:AA79 Y100:AA101 R6:U6 R16:S16 R17:T17 V20:AA20 R18:X18 V4:AA5 R7:T15 Y6:AA17 U7:U17 V6:W17 C108:C121 B103:B121 B83 AA85:AA86 Y86:Z86 B84:C86 Y97:AA97 E84:G84 B122:G133 E108:G121 C103:G107 D85:G86 B87:G102 B3:G82 I3:J82 I84:J133 N84:AA84 N4:T5 N20:S20 N102:AA133 N78:Y79 N85:X86 N80:AA82 N97:X101 N87:AA96 N6:R18 N19:AA19 N21:AA77 N3:AA3">
+    <cfRule type="cellIs" dxfId="70" priority="54" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O84:O111 O21:O82">
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
+  <conditionalFormatting sqref="R84:R111 R21:R82 N21:Q33">
+    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="36" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",O21)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="53" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O84:O133 O3:O82">
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+  <conditionalFormatting sqref="R84:R133 R3:R82 N21:Q33">
+    <cfRule type="cellIs" dxfId="67" priority="51" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O71">
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
+  <conditionalFormatting sqref="R71">
+    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",O71)))</formula>
+    <cfRule type="containsText" dxfId="65" priority="50" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",R71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O104">
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
+  <conditionalFormatting sqref="R104">
+    <cfRule type="cellIs" dxfId="64" priority="47" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",O104)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="48" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",R104)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O76">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
+  <conditionalFormatting sqref="R76">
+    <cfRule type="cellIs" dxfId="62" priority="43" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",O76)))</formula>
+    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",R76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="42" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4">
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
+  <conditionalFormatting sqref="U4">
+    <cfRule type="cellIs" dxfId="59" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U17">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+  <conditionalFormatting sqref="X6:X17">
+    <cfRule type="cellIs" dxfId="58" priority="38" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V85:W85">
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+  <conditionalFormatting sqref="Y85:Z85">
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V98:W99">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
+  <conditionalFormatting sqref="Y98:Z99">
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+  <conditionalFormatting sqref="U5">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W78">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+  <conditionalFormatting sqref="Z78">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:N33">
+  <conditionalFormatting sqref="E21:G33 I21:J33">
+    <cfRule type="cellIs" dxfId="53" priority="22" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="23" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:G33 I21:J33">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109:D121">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H82 H84:H133">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H33">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H33">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H39">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:M82 K84:M133">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:M33">
     <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("已完成",K21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:N33">
+  <conditionalFormatting sqref="K21:M33">
     <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
-      <formula>"TBD"</formula>
+  <conditionalFormatting sqref="L40 K38:L39">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D109:D121">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="L40 K38:L39">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
-      <formula>"TBD"</formula>
+      <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8463,9 +9863,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8473,7 +9873,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8481,7 +9881,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8489,7 +9889,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8497,7 +9897,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8505,7 +9905,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>485</v>
       </c>
@@ -8513,7 +9913,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>486</v>
       </c>
@@ -8521,7 +9921,7 @@
         <v>42124</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>487</v>
       </c>
@@ -8529,7 +9929,7 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>488</v>
       </c>
@@ -8537,12 +9937,12 @@
         <v>42123</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1">
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>490</v>
       </c>
@@ -8550,9 +9950,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1"/>
-    <row r="15" spans="1:3" ht="18" customHeight="1"/>
-    <row r="16" spans="1:3">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>149</v>
       </c>
@@ -8560,17 +9960,17 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -8578,12 +9978,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -8591,32 +9991,32 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="47" t="s">
         <v>293</v>
       </c>
@@ -8624,12 +10024,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="47" t="s">
         <v>294</v>
       </c>
@@ -8637,22 +10037,22 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="47" t="s">
         <v>293</v>
       </c>
@@ -8660,7 +10060,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>468</v>
       </c>
@@ -8668,12 +10068,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8681,12 +10081,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -8694,7 +10094,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -8702,12 +10102,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -8715,7 +10115,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -8723,12 +10123,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>512</v>
       </c>
@@ -8736,22 +10136,22 @@
         <v>513</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -8759,12 +10159,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>7</v>
       </c>
@@ -8772,7 +10172,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>8</v>
       </c>
@@ -8780,12 +10180,12 @@
         <v>526</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>9</v>
       </c>
@@ -8813,17 +10213,17 @@
       <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="48"/>
-    <col min="2" max="2" width="11.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="4"/>
-    <col min="5" max="5" width="41.85546875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="7.5703125" style="4"/>
+    <col min="1" max="1" width="7.5546875" style="48"/>
+    <col min="2" max="2" width="11.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="4"/>
+    <col min="5" max="5" width="41.88671875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="7.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="48" customFormat="1">
+    <row r="1" spans="1:12" s="48" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B1" s="48" t="s">
         <v>296</v>
       </c>
@@ -8858,7 +10258,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>307</v>
       </c>
@@ -8872,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="64"/>
       <c r="C3" s="49" t="s">
         <v>310</v>
@@ -8881,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="64" t="s">
         <v>311</v>
       </c>
@@ -8892,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="64"/>
       <c r="C5" s="4" t="s">
         <v>313</v>
@@ -8901,7 +10301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="64"/>
       <c r="C6" s="49" t="s">
         <v>314</v>
@@ -8910,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="64"/>
       <c r="C7" s="4" t="s">
         <v>315</v>
@@ -8919,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>316</v>
       </c>
@@ -8927,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>317</v>
       </c>
@@ -8935,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>318</v>
       </c>
@@ -8943,7 +10343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>319</v>
       </c>
@@ -8951,7 +10351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>320</v>
       </c>
@@ -8962,7 +10362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>322</v>
       </c>
@@ -8973,7 +10373,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>324</v>
       </c>
@@ -8981,7 +10381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>325</v>
       </c>
@@ -8989,7 +10389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="4" customFormat="1">
+    <row r="17" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>326</v>
       </c>
@@ -8997,7 +10397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="4" customFormat="1">
+    <row r="18" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="49" t="s">
         <v>327</v>
       </c>
@@ -9005,7 +10405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" s="4" customFormat="1">
+    <row r="19" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>328</v>
       </c>
@@ -9014,7 +10414,7 @@
       </c>
       <c r="F19" s="50"/>
     </row>
-    <row r="20" spans="2:10" s="4" customFormat="1">
+    <row r="20" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>329</v>
       </c>
@@ -9022,7 +10422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="4" customFormat="1" ht="17">
+    <row r="21" spans="2:10" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B21" s="49" t="s">
         <v>330</v>
       </c>
@@ -9031,7 +10431,7 @@
       </c>
       <c r="I21" s="51"/>
     </row>
-    <row r="22" spans="2:10" s="4" customFormat="1" ht="17">
+    <row r="22" spans="2:10" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>331</v>
       </c>
@@ -9040,7 +10440,7 @@
       </c>
       <c r="I22" s="51"/>
     </row>
-    <row r="23" spans="2:10" s="4" customFormat="1" ht="17">
+    <row r="23" spans="2:10" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>332</v>
       </c>
@@ -9053,7 +10453,7 @@
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
     </row>
-    <row r="24" spans="2:10" s="4" customFormat="1">
+    <row r="24" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>334</v>
       </c>
@@ -9061,7 +10461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="4" customFormat="1">
+    <row r="25" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>335</v>
       </c>
@@ -9072,7 +10472,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="4" customFormat="1">
+    <row r="26" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="50" t="s">
         <v>337</v>
       </c>
@@ -9083,7 +10483,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="4" customFormat="1">
+    <row r="27" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>338</v>
       </c>
@@ -9094,7 +10494,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="28" spans="2:10" s="4" customFormat="1">
+    <row r="28" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>339</v>
       </c>
@@ -9105,7 +10505,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="2:10" s="4" customFormat="1">
+    <row r="29" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>341</v>
       </c>
@@ -9113,7 +10513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:10" s="4" customFormat="1">
+    <row r="30" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>342</v>
       </c>
@@ -9124,7 +10524,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="4" customFormat="1">
+    <row r="31" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>344</v>
       </c>
@@ -9132,7 +10532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" s="4" customFormat="1">
+    <row r="32" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>345</v>
       </c>
@@ -9140,7 +10540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" s="49" t="s">
         <v>346</v>
       </c>
@@ -9152,7 +10552,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17">
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B34" s="49" t="s">
         <v>144</v>
       </c>
@@ -9164,7 +10564,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17">
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B35" s="49" t="s">
         <v>348</v>
       </c>
@@ -9176,7 +10576,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17">
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B36" s="49" t="s">
         <v>145</v>
       </c>
@@ -9186,11 +10586,11 @@
       </c>
       <c r="E36" s="52"/>
     </row>
-    <row r="37" spans="1:5" ht="17">
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C37" s="51"/>
       <c r="E37" s="51"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
         <v>350</v>
       </c>
@@ -9201,7 +10601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="55" t="s">
         <v>529</v>
       </c>
@@ -9210,7 +10610,7 @@
       </c>
       <c r="E39" s="55"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>352</v>
       </c>
@@ -9221,7 +10621,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>353</v>
       </c>
@@ -9232,7 +10632,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>354</v>
       </c>
@@ -9243,7 +10643,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>355</v>
       </c>
@@ -9254,7 +10654,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>357</v>
       </c>
@@ -9265,7 +10665,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>359</v>
       </c>
@@ -9276,7 +10676,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>360</v>
       </c>
@@ -9287,7 +10687,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>361</v>
       </c>
@@ -9298,7 +10698,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" s="55" t="s">
         <v>505</v>
       </c>
@@ -9307,7 +10707,7 @@
       </c>
       <c r="E48" s="55"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>362</v>
       </c>
@@ -9318,7 +10718,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>363</v>
       </c>
@@ -9329,7 +10729,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>365</v>
       </c>
@@ -9340,7 +10740,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>367</v>
       </c>
@@ -9351,7 +10751,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>368</v>
       </c>
@@ -9362,7 +10762,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>370</v>
       </c>
@@ -9376,7 +10776,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>373</v>
       </c>
@@ -9387,7 +10787,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>375</v>
       </c>
@@ -9398,7 +10798,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>377</v>
       </c>
@@ -9409,7 +10809,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>379</v>
       </c>
@@ -9420,7 +10820,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>380</v>
       </c>
@@ -9431,7 +10831,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>382</v>
       </c>
@@ -9442,7 +10842,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>384</v>
       </c>
@@ -9453,7 +10853,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>386</v>
       </c>
@@ -9464,7 +10864,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>388</v>
       </c>
@@ -9475,7 +10875,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>390</v>
       </c>
@@ -9486,7 +10886,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>392</v>
       </c>
@@ -9497,7 +10897,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>394</v>
       </c>
@@ -9508,7 +10908,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>396</v>
       </c>
@@ -9519,7 +10919,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>398</v>
       </c>
@@ -9530,7 +10930,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B71" s="49" t="s">
         <v>401</v>
       </c>
@@ -9544,7 +10944,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B72" s="49"/>
       <c r="C72" s="49" t="s">
         <v>404</v>
@@ -9556,7 +10956,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B73" s="49"/>
       <c r="C73" s="49" t="s">
         <v>405</v>
@@ -9568,7 +10968,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B74" s="49"/>
       <c r="C74" s="49" t="s">
         <v>407</v>
@@ -9580,7 +10980,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B75" s="49"/>
       <c r="C75" s="49" t="s">
         <v>409</v>
@@ -9592,7 +10992,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B76" s="49"/>
       <c r="C76" s="49" t="s">
         <v>410</v>
@@ -9604,7 +11004,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" s="49"/>
       <c r="C77" s="49" t="s">
         <v>411</v>
@@ -9616,7 +11016,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B78" s="49"/>
       <c r="C78" s="49" t="s">
         <v>413</v>
@@ -9628,7 +11028,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" s="49"/>
       <c r="C79" s="49" t="s">
         <v>415</v>
@@ -9637,7 +11037,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>417</v>
       </c>
@@ -9645,7 +11045,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>419</v>
@@ -9660,7 +11060,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="C83" s="4" t="s">
         <v>422</v>
@@ -9672,7 +11072,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>424</v>
@@ -9687,7 +11087,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="C85" s="4" t="s">
         <v>427</v>
@@ -9699,7 +11099,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="C86" s="4" t="s">
         <v>429</v>
@@ -9711,7 +11111,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="C87" s="4" t="s">
         <v>431</v>
@@ -9723,7 +11123,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="C88" s="4" t="s">
         <v>433</v>
@@ -9735,7 +11135,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>435</v>
@@ -9750,7 +11150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="C90" s="4" t="s">
         <v>437</v>
@@ -9762,7 +11162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="C91" s="4" t="s">
         <v>438</v>
@@ -9774,7 +11174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="C92" s="4" t="s">
         <v>439</v>
@@ -9786,7 +11186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="C93" s="4" t="s">
         <v>440</v>
@@ -9798,7 +11198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="C94" s="4" t="s">
         <v>441</v>
@@ -9810,7 +11210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="C95" s="4" t="s">
         <v>442</v>
@@ -9822,7 +11222,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>444</v>
@@ -9837,7 +11237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>446</v>
@@ -9852,7 +11252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>448</v>
@@ -9864,7 +11264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
         <v>449</v>
       </c>
@@ -9875,7 +11275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
         <v>450</v>
       </c>
@@ -9886,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
         <v>451</v>
       </c>
@@ -9897,7 +11297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
         <v>452</v>
       </c>
@@ -9908,7 +11308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
         <v>453</v>
       </c>
@@ -9919,7 +11319,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
         <v>311</v>
       </c>
@@ -9927,7 +11327,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
         <v>457</v>
       </c>
@@ -9941,7 +11341,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C106" s="4" t="s">
         <v>461</v>
       </c>
@@ -9949,7 +11349,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
         <v>357</v>
       </c>
@@ -9957,7 +11357,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
         <v>464</v>
       </c>
@@ -9968,7 +11368,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
         <v>467</v>
       </c>
@@ -9998,21 +11398,21 @@
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="13" width="11.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="36" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="7.5703125" style="1"/>
+    <col min="15" max="16384" width="7.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10020,45 +11420,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="16">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:14" ht="16">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10066,7 +11466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -10074,7 +11474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -10082,7 +11482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -10090,10 +11490,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
@@ -10134,7 +11534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
@@ -10163,7 +11563,7 @@
       </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
@@ -10195,7 +11595,7 @@
       <c r="M17" s="15"/>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>37</v>
       </c>
@@ -10224,7 +11624,7 @@
       <c r="M18" s="15"/>
       <c r="N18" s="16"/>
     </row>
-    <row r="19" spans="1:14" ht="30">
+    <row r="19" spans="1:14" ht="33" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
@@ -10252,7 +11652,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="16"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
@@ -10278,7 +11678,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>31</v>
       </c>
@@ -10304,7 +11704,7 @@
       <c r="M21" s="14"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>47</v>
       </c>
@@ -10329,7 +11729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
@@ -10355,7 +11755,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
@@ -10382,7 +11782,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>37</v>
       </c>
@@ -10408,7 +11808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -10433,7 +11833,7 @@
       </c>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>58</v>
       </c>
@@ -10462,7 +11862,7 @@
       </c>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" s="11" t="s">
         <v>63</v>
       </c>
@@ -10487,7 +11887,7 @@
       <c r="L28" s="17"/>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="21" t="s">
         <v>67</v>
@@ -10517,7 +11917,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="21" t="s">
         <v>72</v>
@@ -10547,7 +11947,7 @@
       </c>
       <c r="N30" s="16"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
@@ -10571,7 +11971,7 @@
       </c>
       <c r="N31" s="16"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>78</v>
       </c>
@@ -10598,7 +11998,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" spans="1:18" s="2" customFormat="1">
+    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
         <v>81</v>
       </c>
@@ -10625,7 +12025,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
         <v>72</v>
@@ -10652,7 +12052,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>72</v>
       </c>
@@ -10679,7 +12079,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="16"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="21" t="s">
         <v>89</v>
@@ -10707,7 +12107,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="21" t="s">
         <v>74</v>
@@ -10735,7 +12135,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>94</v>
       </c>
@@ -10758,7 +12158,7 @@
       <c r="M38" s="24"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
       <c r="D39" s="28"/>
@@ -10773,7 +12173,7 @@
       <c r="M39" s="24"/>
       <c r="N39" s="11"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>97</v>
       </c>
@@ -10805,7 +12205,7 @@
       <c r="M40" s="24"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
         <v>78</v>
       </c>
@@ -10832,7 +12232,7 @@
       <c r="M41" s="24"/>
       <c r="N41" s="11"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
         <v>103</v>
       </c>
@@ -10859,7 +12259,7 @@
       <c r="M42" s="24"/>
       <c r="N42" s="11"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="25" t="s">
         <v>106</v>
@@ -10889,7 +12289,7 @@
       </c>
       <c r="N43" s="11"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="25" t="s">
         <v>112</v>
@@ -10915,7 +12315,7 @@
       <c r="M44" s="14"/>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45" s="11" t="s">
         <v>115</v>
       </c>
@@ -10942,7 +12342,7 @@
       <c r="Q45" s="34"/>
       <c r="R45" s="35"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46" s="21" t="s">
         <v>117</v>
       </c>
@@ -10965,7 +12365,7 @@
       <c r="M46" s="24"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
         <v>119</v>
       </c>
@@ -10988,7 +12388,7 @@
       <c r="M47" s="24"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>112</v>
       </c>
@@ -11011,7 +12411,7 @@
       <c r="M48" s="24"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="25" t="s">
         <v>122</v>
@@ -11035,7 +12435,7 @@
       <c r="M49" s="24"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" s="36" customFormat="1">
+    <row r="50" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="25" t="s">
         <v>122</v>
       </c>
@@ -11058,7 +12458,7 @@
       <c r="M50" s="24"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B51" s="11"/>
       <c r="C51" s="32"/>
       <c r="D51" s="23"/>
@@ -11073,7 +12473,7 @@
       <c r="M51" s="24"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
@@ -11099,7 +12499,7 @@
       <c r="M52" s="24"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B53" s="11" t="s">
         <v>126</v>
       </c>
@@ -11124,7 +12524,7 @@
       <c r="M53" s="14"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B54" s="11" t="s">
         <v>126</v>
       </c>
@@ -11149,7 +12549,7 @@
       <c r="M54" s="14"/>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B55" s="11" t="s">
         <v>126</v>
       </c>
@@ -11174,7 +12574,7 @@
       <c r="M55" s="24"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B56" s="11" t="s">
         <v>126</v>
       </c>
@@ -11199,7 +12599,7 @@
       <c r="M56" s="14"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B57" s="11" t="s">
         <v>126</v>
       </c>
@@ -11222,7 +12622,7 @@
       <c r="M57" s="14"/>
       <c r="N57" s="11"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B58" s="11"/>
       <c r="C58" s="32"/>
       <c r="D58" s="23"/>
@@ -11237,7 +12637,7 @@
       <c r="M58" s="24"/>
       <c r="N58" s="11"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>140</v>
       </c>
@@ -11255,7 +12655,7 @@
       <c r="M59" s="14"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="1:14" s="36" customFormat="1">
+    <row r="60" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
       <c r="C60" s="41"/>
       <c r="D60" s="18"/>
@@ -11270,7 +12670,7 @@
       <c r="M60" s="24"/>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B61" s="11"/>
       <c r="C61" s="32"/>
       <c r="D61" s="23"/>
@@ -11285,7 +12685,7 @@
       <c r="M61" s="24"/>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B62" s="11"/>
       <c r="C62" s="32"/>
       <c r="D62" s="23"/>
@@ -11300,7 +12700,7 @@
       <c r="M62" s="24"/>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
@@ -11318,7 +12718,7 @@
       <c r="M63" s="24"/>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
       <c r="C64" s="27"/>
       <c r="D64" s="18"/>
@@ -11333,7 +12733,7 @@
       <c r="M64" s="14"/>
       <c r="N64" s="16"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>142</v>
       </c>
@@ -11351,7 +12751,7 @@
       <c r="M65" s="14"/>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
       <c r="C66" s="27"/>
       <c r="D66" s="18"/>
@@ -11366,7 +12766,7 @@
       <c r="M66" s="14"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
       <c r="C67" s="27"/>
       <c r="D67" s="18"/>
@@ -11381,7 +12781,7 @@
       <c r="M67" s="14"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
       <c r="C68" s="27"/>
       <c r="D68" s="18"/>
@@ -11396,7 +12796,7 @@
       <c r="M68" s="14"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
       <c r="C69" s="27"/>
       <c r="D69" s="18"/>
@@ -11411,7 +12811,7 @@
       <c r="M69" s="14"/>
       <c r="N69" s="16"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
       <c r="C70" s="27"/>
       <c r="D70" s="18"/>
@@ -11426,7 +12826,7 @@
       <c r="M70" s="14"/>
       <c r="N70" s="16"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
       <c r="C71" s="43"/>
       <c r="D71" s="18"/>
@@ -11441,7 +12841,7 @@
       <c r="M71" s="14"/>
       <c r="N71" s="16"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
       <c r="C72" s="42"/>
       <c r="D72" s="18"/>
@@ -11456,7 +12856,7 @@
       <c r="M72" s="14"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
       <c r="C73" s="42"/>
       <c r="D73" s="18"/>
@@ -11471,7 +12871,7 @@
       <c r="M73" s="14"/>
       <c r="N73" s="16"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
       <c r="C74" s="42"/>
       <c r="D74" s="18"/>
@@ -11486,7 +12886,7 @@
       <c r="M74" s="14"/>
       <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
       <c r="C75" s="42"/>
       <c r="D75" s="18"/>
@@ -11501,7 +12901,7 @@
       <c r="M75" s="14"/>
       <c r="N75" s="16"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
       <c r="C76" s="42"/>
       <c r="D76" s="18"/>
@@ -11516,7 +12916,7 @@
       <c r="M76" s="14"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="44"/>
@@ -11531,7 +12931,7 @@
       <c r="M77" s="14"/>
       <c r="N77" s="45"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
       <c r="C78" s="42"/>
       <c r="D78" s="18"/>
@@ -11546,7 +12946,7 @@
       <c r="M78" s="14"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B79" s="16"/>
       <c r="C79" s="27"/>
       <c r="D79" s="18"/>
@@ -11561,7 +12961,7 @@
       <c r="M79" s="14"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
       <c r="C80" s="27"/>
       <c r="D80" s="18"/>
@@ -11576,7 +12976,7 @@
       <c r="M80" s="14"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="14"/>
       <c r="C81" s="16"/>
       <c r="D81" s="18"/>
@@ -11591,7 +12991,7 @@
       <c r="M81" s="14"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14"/>
       <c r="C82" s="16"/>
       <c r="D82" s="18"/>
@@ -11606,7 +13006,7 @@
       <c r="M82" s="14"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B83" s="16"/>
       <c r="C83" s="27"/>
       <c r="D83" s="18"/>
@@ -11621,7 +13021,7 @@
       <c r="M83" s="14"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
       <c r="C84" s="42"/>
       <c r="D84" s="18"/>
@@ -11636,7 +13036,7 @@
       <c r="M84" s="14"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="16"/>
       <c r="D85" s="18"/>
@@ -11651,7 +13051,7 @@
       <c r="M85" s="14"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
       <c r="C86" s="27"/>
       <c r="D86" s="18"/>
@@ -11666,7 +13066,7 @@
       <c r="M86" s="14"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
       <c r="C87" s="27"/>
       <c r="D87" s="18"/>
@@ -11681,7 +13081,7 @@
       <c r="M87" s="14"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="18"/>
@@ -11696,7 +13096,7 @@
       <c r="M88" s="14"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="14"/>
       <c r="C89" s="16"/>
       <c r="D89" s="18"/>
@@ -11711,7 +13111,7 @@
       <c r="M89" s="14"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="16"/>
       <c r="D90" s="18"/>
@@ -11726,7 +13126,7 @@
       <c r="M90" s="14"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="16"/>
       <c r="D91" s="18"/>
@@ -11741,16 +13141,16 @@
       <c r="M91" s="14"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C93" s="1"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C96" s="1"/>
     </row>
   </sheetData>

--- a/项目管理/进度计划/妲己游戏计划.xlsx
+++ b/项目管理/进度计划/妲己游戏计划.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5249,7 +5249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -5314,7 +5314,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6810,7 +6810,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6819,7 +6819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6831,7 +6831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -6963,7 +6963,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7018,7 +7018,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7370,793 +7370,793 @@
     </xf>
   </cellXfs>
   <cellStyles count="787">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="658" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="660" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="662" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="664" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="666" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="668" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="670" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="672" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="674" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="676" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="678" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="680" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="694" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="696" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="698" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="700" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="702" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="704" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="706" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="708" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="710" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="712" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="714" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="716" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="786"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="175">
     <dxf>
@@ -9864,7 +9864,7 @@
   <dimension ref="A3:AO207"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
@@ -35643,8 +35643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -35858,7 +35858,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="32" x14ac:dyDescent="0.25">
       <c r="C10" s="192" t="s">
         <v>491</v>
       </c>
@@ -36217,12 +36217,6 @@
       <c r="E27" s="205"/>
       <c r="F27" s="193"/>
       <c r="G27" s="205"/>
-      <c r="H27" s="66" t="s">
-        <v>968</v>
-      </c>
-      <c r="I27" s="205">
-        <v>1.5</v>
-      </c>
       <c r="J27" s="64" t="s">
         <v>518</v>
       </c>
@@ -36479,11 +36473,15 @@
       </c>
       <c r="D39" s="205"/>
       <c r="E39" s="205"/>
-      <c r="F39" s="193" t="s">
+      <c r="F39" s="66" t="s">
+        <v>968</v>
+      </c>
+      <c r="G39" s="205">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="193" t="s">
         <v>969</v>
       </c>
-      <c r="G39" s="205"/>
-      <c r="H39" s="193"/>
       <c r="I39" s="205"/>
       <c r="J39" s="205"/>
       <c r="K39" s="205"/>
@@ -36780,7 +36778,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="3:18" s="239" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:18" s="239" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="C66" s="232" t="s">
         <v>491</v>
       </c>
@@ -36840,7 +36838,7 @@
       <c r="O68" s="234"/>
       <c r="P68" s="243"/>
     </row>
-    <row r="69" spans="3:18" s="239" customFormat="1" ht="65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:18" s="239" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="232" t="s">
         <v>497</v>
       </c>
@@ -37504,7 +37502,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="R77 J93:J101 N93 F87:F106 N77:N82 N85:N89 L92:L93 C89:C90 C79:C87 F77:F82 P78:P81 J86:J87 L77:L79 L81:L84 L86 L88:L90 J77:J79 J81:J83 H77:H82 H84:H90 H23 F34 F37 H26:H28 F28:F32 F23:F26 P23:P29 N24:N26 N37:N38 H31:H35 J35:J36 L33 L38 L35:L36 L23:L25 L27:L28 J32:J33 J27:J28">
+  <conditionalFormatting sqref="R77 J93:J101 N93 F87:F106 N77:N82 N85:N89 L92:L93 C89:C90 C79:C87 F77:F82 P78:P81 J86:J87 L77:L79 L81:L84 L86 L88:L90 J77:J79 J81:J83 H77:H82 H84:H90 H23 F34 F37 F28:F32 F23:F26 P23:P29 N24:N26 N37:N38 H31:H35 J35:J36 L33 L38 L35:L36 L23:L25 L27:L28 J32:J33 J27:J28 H26 H28 F39">
     <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -44315,7 +44313,7 @@
       <c r="AK56" s="8"/>
       <c r="AL56" s="10"/>
     </row>
-    <row r="57" spans="2:38" ht="192" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:38" ht="208" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="10"/>
@@ -49636,7 +49634,7 @@
       <c r="AK89" s="8"/>
       <c r="AL89" s="10"/>
     </row>
-    <row r="90" spans="2:38" s="45" customFormat="1" ht="192" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:38" s="45" customFormat="1" ht="208" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="10"/>
@@ -51537,7 +51535,7 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="10"/>
     </row>
-    <row r="30" spans="1:38" ht="48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="32" x14ac:dyDescent="0.25">
       <c r="A30" s="102" t="s">
         <v>173</v>
       </c>

--- a/项目管理/进度计划/妲己游戏计划.xlsx
+++ b/项目管理/进度计划/妲己游戏计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="35200" windowHeight="19680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3560" yWindow="700" windowWidth="35140" windowHeight="18720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏范围" sheetId="2" r:id="rId1"/>
@@ -418,7 +418,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="992">
   <si>
     <t>分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4986,15 +4986,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>账号，登录</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面，村落UI</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -5159,10 +5151,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>副本结算功能+复活</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>自动战斗</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5196,18 +5184,12 @@
     <t>投放模型完善</t>
   </si>
   <si>
-    <t>Boss需求</t>
-  </si>
-  <si>
     <t>任务设计</t>
   </si>
   <si>
     <t>主UI需求</t>
   </si>
   <si>
-    <t>美术 - 10只怪</t>
-  </si>
-  <si>
     <t>美术 - 场景 2 个</t>
   </si>
   <si>
@@ -5241,7 +5223,28 @@
     <t>副本设6 - 8 章节 （包括怪技能）</t>
   </si>
   <si>
-    <t xml:space="preserve">美术 - 5只怪 </t>
+    <t>Boss需求（2大，2中）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术 - 10只小怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">美术 - 5只小怪 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算功能+复活，副本星级评价</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号，登录，创建角色</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面，村落UI，角色升级</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5474,7 +5477,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5514,6 +5517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5766,7 +5775,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="787">
+  <cellStyleXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -6556,8 +6565,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7330,7 +7355,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7356,6 +7380,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="786" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7369,7 +7398,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="787">
+  <cellStyles count="803">
     <cellStyle name="Normal 2" xfId="786"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
@@ -7763,6 +7792,14 @@
     <cellStyle name="已访问的超链接" xfId="781" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="783" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="802" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
@@ -8157,6 +8194,14 @@
     <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="175">
     <dxf>
@@ -10023,13 +10068,13 @@
     </row>
     <row r="4" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="37"/>
       <c r="D4" s="156"/>
       <c r="E4" s="8" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F4" s="219"/>
       <c r="G4" s="44"/>
@@ -10074,7 +10119,7 @@
       <c r="C5" s="37"/>
       <c r="D5" s="156"/>
       <c r="E5" s="8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F5" s="219"/>
       <c r="G5" s="44"/>
@@ -10119,7 +10164,7 @@
       <c r="C6" s="37"/>
       <c r="D6" s="156"/>
       <c r="E6" s="8" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F6" s="219"/>
       <c r="G6" s="44"/>
@@ -10164,7 +10209,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="156"/>
       <c r="E7" s="8" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F7" s="219"/>
       <c r="G7" s="44"/>
@@ -10209,7 +10254,7 @@
       <c r="C8" s="37"/>
       <c r="D8" s="156"/>
       <c r="E8" s="8" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F8" s="219"/>
       <c r="G8" s="44"/>
@@ -10254,7 +10299,7 @@
       <c r="C9" s="37"/>
       <c r="D9" s="156"/>
       <c r="E9" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F9" s="219"/>
       <c r="G9" s="44"/>
@@ -10423,7 +10468,7 @@
       <c r="AO11" s="10"/>
     </row>
     <row r="12" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="279"/>
+      <c r="A12" s="278"/>
       <c r="B12" s="156">
         <v>2</v>
       </c>
@@ -10505,7 +10550,7 @@
       <c r="AO12" s="10"/>
     </row>
     <row r="13" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="279"/>
+      <c r="A13" s="278"/>
       <c r="B13" s="156">
         <v>3</v>
       </c>
@@ -10583,7 +10628,7 @@
       <c r="AO13" s="10"/>
     </row>
     <row r="14" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="279"/>
+      <c r="A14" s="278"/>
       <c r="B14" s="156">
         <v>4</v>
       </c>
@@ -10658,7 +10703,7 @@
       <c r="AO14" s="10"/>
     </row>
     <row r="15" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="279"/>
+      <c r="A15" s="278"/>
       <c r="B15" s="156">
         <v>5</v>
       </c>
@@ -10718,7 +10763,7 @@
       <c r="AO15" s="10"/>
     </row>
     <row r="16" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="279"/>
+      <c r="A16" s="278"/>
       <c r="B16" s="156">
         <v>6</v>
       </c>
@@ -10769,7 +10814,7 @@
       <c r="AO16" s="10"/>
     </row>
     <row r="17" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="279"/>
+      <c r="A17" s="278"/>
       <c r="B17" s="156">
         <v>7</v>
       </c>
@@ -10846,7 +10891,7 @@
       <c r="AO17" s="10"/>
     </row>
     <row r="18" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="279"/>
+      <c r="A18" s="278"/>
       <c r="B18" s="156">
         <v>8</v>
       </c>
@@ -10921,7 +10966,7 @@
       <c r="AO18" s="10"/>
     </row>
     <row r="19" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="279"/>
+      <c r="A19" s="278"/>
       <c r="B19" s="156">
         <v>9</v>
       </c>
@@ -10996,7 +11041,7 @@
       <c r="AO19" s="10"/>
     </row>
     <row r="20" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="279"/>
+      <c r="A20" s="278"/>
       <c r="B20" s="156">
         <v>10</v>
       </c>
@@ -11075,7 +11120,7 @@
       <c r="AO20" s="10"/>
     </row>
     <row r="21" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="279"/>
+      <c r="A21" s="278"/>
       <c r="B21" s="156">
         <v>11</v>
       </c>
@@ -11150,7 +11195,7 @@
       <c r="AO21" s="10"/>
     </row>
     <row r="22" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="279"/>
+      <c r="A22" s="278"/>
       <c r="B22" s="156">
         <v>12</v>
       </c>
@@ -11223,7 +11268,7 @@
       <c r="AO22" s="10"/>
     </row>
     <row r="23" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="279"/>
+      <c r="A23" s="278"/>
       <c r="B23" s="156">
         <v>13</v>
       </c>
@@ -11234,7 +11279,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="170" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F23" s="164"/>
       <c r="G23" s="43"/>
@@ -11274,7 +11319,7 @@
       <c r="AO23" s="10"/>
     </row>
     <row r="24" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="279"/>
+      <c r="A24" s="278"/>
       <c r="B24" s="156">
         <v>14</v>
       </c>
@@ -11285,7 +11330,7 @@
         <v>56</v>
       </c>
       <c r="E24" s="169" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F24" s="164"/>
       <c r="G24" s="43"/>
@@ -11325,7 +11370,7 @@
       <c r="AO24" s="10"/>
     </row>
     <row r="25" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="279"/>
+      <c r="A25" s="278"/>
       <c r="B25" s="156">
         <v>15</v>
       </c>
@@ -11402,7 +11447,7 @@
       <c r="AO25" s="10"/>
     </row>
     <row r="26" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="279"/>
+      <c r="A26" s="278"/>
       <c r="B26" s="156">
         <v>16</v>
       </c>
@@ -11480,7 +11525,7 @@
       <c r="AO26" s="10"/>
     </row>
     <row r="27" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="279"/>
+      <c r="A27" s="278"/>
       <c r="B27" s="156">
         <v>17</v>
       </c>
@@ -11563,7 +11608,7 @@
       <c r="AO27" s="10"/>
     </row>
     <row r="28" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="279"/>
+      <c r="A28" s="278"/>
       <c r="B28" s="156">
         <v>18</v>
       </c>
@@ -11620,7 +11665,7 @@
       <c r="AO28" s="10"/>
     </row>
     <row r="29" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="279"/>
+      <c r="A29" s="278"/>
       <c r="B29" s="156">
         <v>19</v>
       </c>
@@ -11699,7 +11744,7 @@
       <c r="AO29" s="10"/>
     </row>
     <row r="30" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="279"/>
+      <c r="A30" s="278"/>
       <c r="B30" s="156">
         <v>20</v>
       </c>
@@ -11758,7 +11803,7 @@
       <c r="AO30" s="10"/>
     </row>
     <row r="31" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="280"/>
+      <c r="A31" s="279"/>
       <c r="B31" s="156">
         <v>21</v>
       </c>
@@ -11837,7 +11882,7 @@
       <c r="AO31" s="10"/>
     </row>
     <row r="32" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="280"/>
+      <c r="A32" s="279"/>
       <c r="B32" s="156">
         <v>22</v>
       </c>
@@ -11922,7 +11967,7 @@
       <c r="AO32" s="10"/>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="280"/>
+      <c r="A33" s="279"/>
       <c r="B33" s="156">
         <v>23</v>
       </c>
@@ -11996,7 +12041,7 @@
       <c r="AO33" s="10"/>
     </row>
     <row r="34" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="281"/>
+      <c r="A34" s="280"/>
       <c r="B34" s="156">
         <v>24</v>
       </c>
@@ -12140,7 +12185,7 @@
       <c r="AO35" s="10"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" s="280"/>
+      <c r="A36" s="279"/>
       <c r="B36" s="156">
         <v>26</v>
       </c>
@@ -12201,7 +12246,7 @@
       <c r="AO36" s="10"/>
     </row>
     <row r="37" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="281"/>
+      <c r="A37" s="280"/>
       <c r="B37" s="156">
         <v>27</v>
       </c>
@@ -12262,7 +12307,7 @@
       <c r="AO37" s="10"/>
     </row>
     <row r="38" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="280"/>
+      <c r="A38" s="279"/>
       <c r="B38" s="156">
         <v>28</v>
       </c>
@@ -12342,7 +12387,7 @@
       <c r="AO38" s="10"/>
     </row>
     <row r="39" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="280"/>
+      <c r="A39" s="279"/>
       <c r="B39" s="156">
         <v>29</v>
       </c>
@@ -12434,7 +12479,7 @@
       <c r="AO39" s="10"/>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="280"/>
+      <c r="A40" s="279"/>
       <c r="B40" s="156">
         <v>30</v>
       </c>
@@ -12526,7 +12571,7 @@
       <c r="AO40" s="10"/>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" s="280"/>
+      <c r="A41" s="279"/>
       <c r="B41" s="156">
         <v>31</v>
       </c>
@@ -12618,7 +12663,7 @@
       <c r="AO41" s="10"/>
     </row>
     <row r="42" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="280"/>
+      <c r="A42" s="279"/>
       <c r="B42" s="156">
         <v>32</v>
       </c>
@@ -12669,7 +12714,7 @@
       <c r="AO42" s="10"/>
     </row>
     <row r="43" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="280"/>
+      <c r="A43" s="279"/>
       <c r="B43" s="156">
         <v>33</v>
       </c>
@@ -12735,7 +12780,7 @@
       <c r="AO43" s="10"/>
     </row>
     <row r="44" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="280"/>
+      <c r="A44" s="279"/>
       <c r="B44" s="156">
         <v>34</v>
       </c>
@@ -12796,12 +12841,12 @@
       <c r="AO44" s="10"/>
     </row>
     <row r="45" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="280"/>
+      <c r="A45" s="279"/>
       <c r="B45" s="156"/>
       <c r="C45" s="44"/>
       <c r="D45" s="156"/>
       <c r="E45" s="8" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="F45" s="164"/>
       <c r="G45" s="43"/>
@@ -12841,7 +12886,7 @@
       <c r="AO45" s="10"/>
     </row>
     <row r="46" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="280"/>
+      <c r="A46" s="279"/>
       <c r="B46" s="156">
         <v>35</v>
       </c>
@@ -12935,7 +12980,7 @@
       <c r="AO46" s="43"/>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A47" s="280"/>
+      <c r="A47" s="279"/>
       <c r="B47" s="156">
         <v>36</v>
       </c>
@@ -13026,7 +13071,7 @@
       <c r="AO47" s="43"/>
     </row>
     <row r="48" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="280"/>
+      <c r="A48" s="279"/>
       <c r="B48" s="156">
         <v>37</v>
       </c>
@@ -13111,7 +13156,7 @@
       <c r="AO48" s="43"/>
     </row>
     <row r="49" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="280"/>
+      <c r="A49" s="279"/>
       <c r="B49" s="156">
         <v>38</v>
       </c>
@@ -13174,7 +13219,7 @@
       <c r="AO49" s="43"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A50" s="280"/>
+      <c r="A50" s="279"/>
       <c r="B50" s="156">
         <v>39</v>
       </c>
@@ -13261,7 +13306,7 @@
       <c r="AO50" s="43"/>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A51" s="280"/>
+      <c r="A51" s="279"/>
       <c r="B51" s="156">
         <v>40</v>
       </c>
@@ -13394,7 +13439,7 @@
       <c r="AO52" s="43"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A53" s="280"/>
+      <c r="A53" s="279"/>
       <c r="B53" s="156">
         <v>42</v>
       </c>
@@ -13490,7 +13535,7 @@
       <c r="AO53" s="43"/>
     </row>
     <row r="54" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="280"/>
+      <c r="A54" s="279"/>
       <c r="B54" s="156">
         <v>43</v>
       </c>
@@ -13543,7 +13588,7 @@
       <c r="AO54" s="43"/>
     </row>
     <row r="55" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="280"/>
+      <c r="A55" s="279"/>
       <c r="B55" s="156">
         <v>44</v>
       </c>
@@ -13632,7 +13677,7 @@
       <c r="AO55" s="43"/>
     </row>
     <row r="56" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="280"/>
+      <c r="A56" s="279"/>
       <c r="B56" s="156">
         <v>45</v>
       </c>
@@ -13719,7 +13764,7 @@
       <c r="AO56" s="43"/>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A57" s="280"/>
+      <c r="A57" s="279"/>
       <c r="B57" s="156">
         <v>46</v>
       </c>
@@ -13813,7 +13858,7 @@
       <c r="AO57" s="43"/>
     </row>
     <row r="58" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="280"/>
+      <c r="A58" s="279"/>
       <c r="B58" s="156">
         <v>47</v>
       </c>
@@ -13876,7 +13921,7 @@
       <c r="AO58" s="43"/>
     </row>
     <row r="59" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="280"/>
+      <c r="A59" s="279"/>
       <c r="B59" s="156">
         <v>48</v>
       </c>
@@ -13961,7 +14006,7 @@
       <c r="AO59" s="10"/>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A60" s="280"/>
+      <c r="A60" s="279"/>
       <c r="B60" s="156">
         <v>49</v>
       </c>
@@ -14101,7 +14146,7 @@
       <c r="AO61" s="43"/>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A62" s="280"/>
+      <c r="A62" s="279"/>
       <c r="B62" s="156">
         <v>51</v>
       </c>
@@ -14188,7 +14233,7 @@
       <c r="AO62" s="6"/>
     </row>
     <row r="63" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="280"/>
+      <c r="A63" s="279"/>
       <c r="B63" s="156">
         <v>52</v>
       </c>
@@ -14275,7 +14320,7 @@
       <c r="AO63" s="6"/>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A64" s="280"/>
+      <c r="A64" s="279"/>
       <c r="B64" s="156">
         <v>53</v>
       </c>
@@ -14364,7 +14409,7 @@
       <c r="AO64" s="6"/>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A65" s="280"/>
+      <c r="A65" s="279"/>
       <c r="B65" s="156">
         <v>54</v>
       </c>
@@ -14451,7 +14496,7 @@
       <c r="AO65" s="6"/>
     </row>
     <row r="66" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="280"/>
+      <c r="A66" s="279"/>
       <c r="B66" s="156">
         <v>55</v>
       </c>
@@ -14540,7 +14585,7 @@
       <c r="AO66" s="6"/>
     </row>
     <row r="67" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="280"/>
+      <c r="A67" s="279"/>
       <c r="B67" s="156">
         <v>56</v>
       </c>
@@ -14624,7 +14669,7 @@
       <c r="AO67" s="10"/>
     </row>
     <row r="68" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="280"/>
+      <c r="A68" s="279"/>
       <c r="B68" s="156">
         <v>57</v>
       </c>
@@ -14634,7 +14679,7 @@
       <c r="D68" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="285" t="s">
+      <c r="E68" s="284" t="s">
         <v>77</v>
       </c>
       <c r="F68" s="164">
@@ -14705,7 +14750,7 @@
       <c r="AO68" s="10"/>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69" s="280"/>
+      <c r="A69" s="279"/>
       <c r="B69" s="156">
         <v>58</v>
       </c>
@@ -14794,7 +14839,7 @@
       <c r="AO69" s="10"/>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A70" s="280"/>
+      <c r="A70" s="279"/>
       <c r="B70" s="156">
         <v>59</v>
       </c>
@@ -14851,7 +14896,7 @@
       <c r="AO70" s="10"/>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A71" s="280"/>
+      <c r="A71" s="279"/>
       <c r="B71" s="156">
         <v>60</v>
       </c>
@@ -14931,7 +14976,7 @@
       <c r="AO71" s="10"/>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A72" s="280"/>
+      <c r="A72" s="279"/>
       <c r="B72" s="156">
         <v>61</v>
       </c>
@@ -15012,7 +15057,7 @@
       <c r="AO72" s="10"/>
     </row>
     <row r="73" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="280"/>
+      <c r="A73" s="279"/>
       <c r="B73" s="156">
         <v>62</v>
       </c>
@@ -15099,7 +15144,7 @@
       <c r="AO73" s="10"/>
     </row>
     <row r="74" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="280"/>
+      <c r="A74" s="279"/>
       <c r="B74" s="156">
         <v>63</v>
       </c>
@@ -15463,7 +15508,7 @@
       <c r="AO79" s="43"/>
     </row>
     <row r="80" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="280" t="s">
+      <c r="A80" s="279" t="s">
         <v>173</v>
       </c>
       <c r="B80" s="156">
@@ -15641,7 +15686,7 @@
       <c r="AO81" s="10"/>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A82" s="280"/>
+      <c r="A82" s="279"/>
       <c r="B82" s="156">
         <v>71</v>
       </c>
@@ -15728,7 +15773,7 @@
       <c r="AO82" s="10"/>
     </row>
     <row r="83" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="280"/>
+      <c r="A83" s="279"/>
       <c r="B83" s="156">
         <v>72</v>
       </c>
@@ -15779,7 +15824,7 @@
       <c r="AO83" s="10"/>
     </row>
     <row r="84" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="280"/>
+      <c r="A84" s="279"/>
       <c r="B84" s="156">
         <v>73</v>
       </c>
@@ -15866,7 +15911,7 @@
       <c r="AO84" s="10"/>
     </row>
     <row r="85" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="280"/>
+      <c r="A85" s="279"/>
       <c r="B85" s="156">
         <v>74</v>
       </c>
@@ -15917,7 +15962,7 @@
       <c r="AO85" s="10"/>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A86" s="280"/>
+      <c r="A86" s="279"/>
       <c r="B86" s="156">
         <v>75</v>
       </c>
@@ -16004,7 +16049,7 @@
       <c r="AO86" s="10"/>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A87" s="280"/>
+      <c r="A87" s="279"/>
       <c r="B87" s="156">
         <v>76</v>
       </c>
@@ -16091,7 +16136,7 @@
       <c r="AO87" s="10"/>
     </row>
     <row r="88" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="280"/>
+      <c r="A88" s="279"/>
       <c r="B88" s="156">
         <v>77</v>
       </c>
@@ -16178,7 +16223,7 @@
       <c r="AO88" s="10"/>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A89" s="280"/>
+      <c r="A89" s="279"/>
       <c r="B89" s="156">
         <v>78</v>
       </c>
@@ -16265,7 +16310,7 @@
       <c r="AO89" s="10"/>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A90" s="280"/>
+      <c r="A90" s="279"/>
       <c r="B90" s="156">
         <v>79</v>
       </c>
@@ -16352,7 +16397,7 @@
       <c r="AO90" s="10"/>
     </row>
     <row r="91" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="280"/>
+      <c r="A91" s="279"/>
       <c r="B91" s="156">
         <v>80</v>
       </c>
@@ -16427,7 +16472,7 @@
       <c r="AO91" s="10"/>
     </row>
     <row r="92" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="280"/>
+      <c r="A92" s="279"/>
       <c r="B92" s="156">
         <v>81</v>
       </c>
@@ -16504,7 +16549,7 @@
       <c r="AO92" s="10"/>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A93" s="280"/>
+      <c r="A93" s="279"/>
       <c r="B93" s="156">
         <v>82</v>
       </c>
@@ -16591,7 +16636,7 @@
       <c r="AO93" s="6"/>
     </row>
     <row r="94" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="280"/>
+      <c r="A94" s="279"/>
       <c r="B94" s="156">
         <v>83</v>
       </c>
@@ -16654,7 +16699,7 @@
       <c r="AO94" s="6"/>
     </row>
     <row r="95" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="280"/>
+      <c r="A95" s="279"/>
       <c r="B95" s="156">
         <v>84</v>
       </c>
@@ -16717,7 +16762,7 @@
       <c r="AO95" s="6"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A96" s="280"/>
+      <c r="A96" s="279"/>
       <c r="B96" s="156">
         <v>85</v>
       </c>
@@ -16962,7 +17007,7 @@
       <c r="AO99" s="43"/>
     </row>
     <row r="100" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="282"/>
+      <c r="A100" s="281"/>
       <c r="B100" s="156">
         <v>89</v>
       </c>
@@ -17039,7 +17084,7 @@
       <c r="AO100" s="6"/>
     </row>
     <row r="101" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="282"/>
+      <c r="A101" s="281"/>
       <c r="B101" s="156">
         <v>90</v>
       </c>
@@ -17116,7 +17161,7 @@
       <c r="AO101" s="6"/>
     </row>
     <row r="102" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="283"/>
+      <c r="A102" s="282"/>
       <c r="B102" s="156">
         <v>91</v>
       </c>
@@ -17292,7 +17337,7 @@
       <c r="AO104" s="6"/>
     </row>
     <row r="105" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="283"/>
+      <c r="A105" s="282"/>
       <c r="B105" s="156">
         <v>94</v>
       </c>
@@ -17477,7 +17522,7 @@
       <c r="AO107" s="6"/>
     </row>
     <row r="108" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="284"/>
+      <c r="A108" s="283"/>
       <c r="B108" s="156">
         <v>97</v>
       </c>
@@ -17793,7 +17838,7 @@
       <c r="AO113" s="6"/>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A114" s="283"/>
+      <c r="A114" s="282"/>
       <c r="B114" s="156">
         <v>202</v>
       </c>
@@ -18158,7 +18203,7 @@
       <c r="AO118" s="6"/>
     </row>
     <row r="119" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="284"/>
+      <c r="A119" s="283"/>
       <c r="B119" s="156">
         <v>207</v>
       </c>
@@ -18229,7 +18274,7 @@
       <c r="AO119" s="6"/>
     </row>
     <row r="120" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="284"/>
+      <c r="A120" s="283"/>
       <c r="B120" s="156">
         <v>208</v>
       </c>
@@ -18299,7 +18344,7 @@
       <c r="AO120" s="10"/>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A121" s="283"/>
+      <c r="A121" s="282"/>
       <c r="B121" s="156">
         <v>209</v>
       </c>
@@ -18350,7 +18395,7 @@
       <c r="AO121" s="10"/>
     </row>
     <row r="122" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="283"/>
+      <c r="A122" s="282"/>
       <c r="B122" s="156">
         <v>210</v>
       </c>
@@ -18403,7 +18448,7 @@
       <c r="AO122" s="10"/>
     </row>
     <row r="123" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="283"/>
+      <c r="A123" s="282"/>
       <c r="B123" s="156">
         <v>211</v>
       </c>
@@ -18454,7 +18499,7 @@
       <c r="AO123" s="10"/>
     </row>
     <row r="124" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="284"/>
+      <c r="A124" s="283"/>
       <c r="B124" s="156">
         <v>212</v>
       </c>
@@ -18511,7 +18556,7 @@
       <c r="AO124" s="10"/>
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A125" s="284"/>
+      <c r="A125" s="283"/>
       <c r="B125" s="156">
         <v>213</v>
       </c>
@@ -18750,7 +18795,7 @@
       <c r="AO128" s="10"/>
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A129" s="283"/>
+      <c r="A129" s="282"/>
       <c r="B129" s="156">
         <v>403</v>
       </c>
@@ -18810,7 +18855,7 @@
       <c r="AO129" s="6"/>
     </row>
     <row r="130" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="283"/>
+      <c r="A130" s="282"/>
       <c r="B130" s="156">
         <v>404</v>
       </c>
@@ -18863,7 +18908,7 @@
       <c r="AO130" s="6"/>
     </row>
     <row r="131" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="283"/>
+      <c r="A131" s="282"/>
       <c r="B131" s="156">
         <v>405</v>
       </c>
@@ -18923,7 +18968,7 @@
       <c r="AO131" s="6"/>
     </row>
     <row r="132" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="283"/>
+      <c r="A132" s="282"/>
       <c r="B132" s="156">
         <v>406</v>
       </c>
@@ -19357,7 +19402,7 @@
       <c r="AO139" s="10"/>
     </row>
     <row r="140" spans="1:41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="284"/>
+      <c r="A140" s="283"/>
       <c r="B140" s="156">
         <v>414</v>
       </c>
@@ -19526,7 +19571,7 @@
       <c r="AO142" s="10"/>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A143" s="284"/>
+      <c r="A143" s="283"/>
       <c r="B143" s="156">
         <v>417</v>
       </c>
@@ -20027,7 +20072,7 @@
       <c r="AO151" s="10"/>
     </row>
     <row r="152" spans="1:41" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="281"/>
+      <c r="A152" s="280"/>
       <c r="B152" s="156">
         <v>456</v>
       </c>
@@ -20127,7 +20172,7 @@
       <c r="AO153" s="141"/>
     </row>
     <row r="154" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A154" s="284"/>
+      <c r="A154" s="283"/>
       <c r="B154" s="156">
         <v>458</v>
       </c>
@@ -21935,7 +21980,7 @@
       <c r="AO184" s="10"/>
     </row>
     <row r="185" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A185" s="284"/>
+      <c r="A185" s="283"/>
       <c r="B185" s="156"/>
       <c r="C185" s="43"/>
       <c r="D185" s="164"/>
@@ -35643,8 +35688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -35979,19 +36024,19 @@
       <c r="D16" s="194"/>
       <c r="E16" s="194"/>
       <c r="F16" s="194" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G16" s="194"/>
       <c r="H16" s="194" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I16" s="194"/>
       <c r="J16" s="193" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="K16" s="194"/>
       <c r="L16" s="194" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="M16" s="194"/>
       <c r="N16" s="194"/>
@@ -36003,15 +36048,15 @@
       <c r="D17" s="194"/>
       <c r="E17" s="194"/>
       <c r="F17" s="194" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G17" s="194"/>
       <c r="H17" s="194" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I17" s="194"/>
       <c r="J17" s="194" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K17" s="194"/>
       <c r="M17" s="194"/>
@@ -36024,15 +36069,15 @@
       <c r="D18" s="194"/>
       <c r="E18" s="194"/>
       <c r="F18" s="194" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G18" s="194"/>
       <c r="H18" s="194" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I18" s="194"/>
       <c r="J18" s="194" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="K18" s="194"/>
       <c r="M18" s="194"/>
@@ -36049,7 +36094,7 @@
       <c r="H19" s="194"/>
       <c r="I19" s="194"/>
       <c r="J19" s="194" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="K19" s="194"/>
       <c r="L19" s="194"/>
@@ -36114,18 +36159,12 @@
       </c>
       <c r="D23" s="205"/>
       <c r="E23" s="205"/>
-      <c r="F23" s="64" t="s">
-        <v>543</v>
-      </c>
-      <c r="G23" s="205">
-        <v>2</v>
-      </c>
       <c r="H23" s="64" t="s">
         <v>547</v>
       </c>
       <c r="I23" s="205"/>
-      <c r="J23" s="278" t="s">
-        <v>958</v>
+      <c r="J23" s="288" t="s">
+        <v>956</v>
       </c>
       <c r="K23" s="205">
         <v>4</v>
@@ -36146,14 +36185,17 @@
       <c r="D24" s="205"/>
       <c r="E24" s="205"/>
       <c r="F24" s="64" t="s">
-        <v>546</v>
-      </c>
-      <c r="G24" s="205"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="205"/>
+        <v>518</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="I24" s="205">
+        <v>2</v>
+      </c>
       <c r="K24" s="205"/>
       <c r="L24" s="205" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M24" s="205">
         <v>1</v>
@@ -36166,17 +36208,23 @@
       <c r="C25" s="204"/>
       <c r="D25" s="205"/>
       <c r="E25" s="205"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="193"/>
+      <c r="F25" s="64" t="s">
+        <v>965</v>
+      </c>
+      <c r="G25" s="205">
+        <v>3</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>546</v>
+      </c>
       <c r="I25" s="205"/>
       <c r="J25" s="64" t="s">
-        <v>943</v>
+        <v>990</v>
       </c>
       <c r="K25" s="205">
         <v>1</v>
       </c>
-      <c r="L25" s="64" t="s">
+      <c r="L25" s="289" t="s">
         <v>545</v>
       </c>
       <c r="M25" s="205"/>
@@ -36188,17 +36236,11 @@
       <c r="C26" s="204"/>
       <c r="D26" s="205"/>
       <c r="E26" s="205"/>
-      <c r="F26" s="64" t="s">
+      <c r="H26" s="64" t="s">
         <v>891</v>
       </c>
-      <c r="G26" s="205">
+      <c r="I26" s="205">
         <v>3</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>402</v>
-      </c>
-      <c r="I26" s="205">
-        <v>2</v>
       </c>
       <c r="J26" s="64" t="s">
         <v>565</v>
@@ -36217,9 +36259,6 @@
       <c r="E27" s="205"/>
       <c r="F27" s="193"/>
       <c r="G27" s="205"/>
-      <c r="J27" s="64" t="s">
-        <v>518</v>
-      </c>
       <c r="K27" s="205"/>
       <c r="L27" s="64" t="s">
         <v>525</v>
@@ -36239,17 +36278,14 @@
         <v>838</v>
       </c>
       <c r="G28" s="205"/>
-      <c r="H28" s="98" t="s">
-        <v>548</v>
-      </c>
       <c r="I28" s="205"/>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="98" t="s">
         <v>939</v>
       </c>
       <c r="K28" s="205">
         <v>1</v>
       </c>
-      <c r="L28" s="64" t="s">
+      <c r="L28" s="98" t="s">
         <v>549</v>
       </c>
       <c r="M28" s="205">
@@ -36269,16 +36305,20 @@
         <v>937</v>
       </c>
       <c r="G29" s="205"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="193" t="s">
+      <c r="H29" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="I29" s="205">
+        <v>2</v>
+      </c>
+      <c r="J29" s="287" t="s">
         <v>940</v>
       </c>
       <c r="K29" s="205">
         <v>2</v>
       </c>
-      <c r="L29" s="193" t="s">
-        <v>946</v>
+      <c r="L29" s="287" t="s">
+        <v>944</v>
       </c>
       <c r="M29" s="205">
         <v>3</v>
@@ -36300,7 +36340,7 @@
       <c r="H30" s="193"/>
       <c r="I30" s="205"/>
       <c r="K30" s="205"/>
-      <c r="L30" s="64" t="s">
+      <c r="L30" s="289" t="s">
         <v>530</v>
       </c>
       <c r="M30" s="205">
@@ -36318,12 +36358,6 @@
         <v>516</v>
       </c>
       <c r="G31" s="205"/>
-      <c r="H31" s="64" t="s">
-        <v>967</v>
-      </c>
-      <c r="I31" s="205">
-        <v>3</v>
-      </c>
       <c r="M31" s="205"/>
       <c r="N31" s="193"/>
       <c r="O31" s="205"/>
@@ -36372,7 +36406,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="64" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="M33" s="205">
         <v>2</v>
@@ -36385,12 +36419,12 @@
       <c r="C34" s="67"/>
       <c r="D34" s="205"/>
       <c r="E34" s="205"/>
-      <c r="F34" s="286" t="s">
+      <c r="F34" s="285" t="s">
         <v>533</v>
       </c>
       <c r="G34" s="205"/>
       <c r="H34" s="64" t="s">
-        <v>945</v>
+        <v>991</v>
       </c>
       <c r="I34" s="205">
         <v>2</v>
@@ -36405,14 +36439,12 @@
       <c r="C35" s="67"/>
       <c r="D35" s="205"/>
       <c r="E35" s="205"/>
-      <c r="F35" s="193" t="s">
-        <v>970</v>
-      </c>
-      <c r="G35" s="205">
+      <c r="H35" s="193" t="s">
+        <v>967</v>
+      </c>
+      <c r="I35" s="205">
         <v>2.5</v>
       </c>
-      <c r="H35" s="68"/>
-      <c r="I35" s="205"/>
       <c r="J35" s="64" t="s">
         <v>832</v>
       </c>
@@ -36429,6 +36461,9 @@
       <c r="C36" s="67"/>
       <c r="D36" s="205"/>
       <c r="E36" s="205"/>
+      <c r="F36" s="188" t="s">
+        <v>969</v>
+      </c>
       <c r="G36" s="205"/>
       <c r="J36" s="64" t="s">
         <v>568</v>
@@ -36467,20 +36502,18 @@
       <c r="O38" s="205"/>
       <c r="P38" s="206"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C39" s="70" t="s">
-        <v>972</v>
-      </c>
+    <row r="39" spans="3:16" ht="32" x14ac:dyDescent="0.25">
+      <c r="C39" s="70"/>
       <c r="D39" s="205"/>
       <c r="E39" s="205"/>
       <c r="F39" s="66" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
       <c r="G39" s="205">
         <v>1.5</v>
       </c>
       <c r="H39" s="193" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="I39" s="205"/>
       <c r="J39" s="205"/>
@@ -36507,99 +36540,96 @@
       <c r="O40" s="208"/>
       <c r="P40" s="209"/>
     </row>
-    <row r="42" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="287" t="s">
+    <row r="42" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="286" t="s">
+        <v>970</v>
+      </c>
+      <c r="H42" s="286" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="286" t="s">
+        <v>972</v>
+      </c>
+      <c r="H43" s="286" t="s">
+        <v>983</v>
+      </c>
+      <c r="J43" s="286" t="s">
+        <v>984</v>
+      </c>
+      <c r="L43" s="286" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="286" t="s">
+        <v>986</v>
+      </c>
+      <c r="H45" s="286" t="s">
         <v>973</v>
       </c>
-      <c r="J42" s="287" t="s">
+    </row>
+    <row r="46" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="286" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="43" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="287" t="s">
+    <row r="47" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="286" t="s">
+        <v>987</v>
+      </c>
+      <c r="J47" s="286" t="s">
+        <v>987</v>
+      </c>
+      <c r="L47" s="286" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="286" t="s">
+        <v>987</v>
+      </c>
+      <c r="H48" s="286" t="s">
         <v>975</v>
       </c>
-      <c r="H43" s="287" t="s">
-        <v>988</v>
-      </c>
-      <c r="J43" s="287" t="s">
-        <v>989</v>
-      </c>
-      <c r="L43" s="287" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="287" t="s">
+      <c r="J48" s="286" t="s">
+        <v>975</v>
+      </c>
+      <c r="L48" s="286" t="s">
         <v>976</v>
       </c>
-      <c r="H45" s="287" t="s">
+    </row>
+    <row r="49" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="286" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="46" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="287" t="s">
+      <c r="H49" s="286" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="47" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="287" t="s">
+      <c r="J49" s="286" t="s">
         <v>979</v>
       </c>
-      <c r="J47" s="287" t="s">
-        <v>979</v>
-      </c>
-      <c r="L47" s="287" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="48" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="287" t="s">
-        <v>979</v>
-      </c>
-      <c r="H48" s="287" t="s">
+      <c r="L49" s="286" t="s">
         <v>980</v>
       </c>
-      <c r="J48" s="287" t="s">
-        <v>980</v>
-      </c>
-      <c r="L48" s="287" t="s">
+    </row>
+    <row r="50" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="286" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="49" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="287" t="s">
+    <row r="51" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="3:16" s="286" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="286" t="s">
         <v>982</v>
       </c>
-      <c r="H49" s="287" t="s">
-        <v>983</v>
-      </c>
-      <c r="J49" s="287" t="s">
-        <v>984</v>
-      </c>
-      <c r="L49" s="287" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L50" s="287" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="51" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="3:16" s="287" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="287" t="s">
-        <v>987</v>
-      </c>
-      <c r="H52" s="287" t="s">
-        <v>987</v>
-      </c>
-      <c r="J52" s="287" t="s">
-        <v>987</v>
-      </c>
-      <c r="L52" s="287" t="s">
-        <v>987</v>
+      <c r="J52" s="286" t="s">
+        <v>982</v>
+      </c>
+      <c r="L52" s="286" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="57" spans="3:16" ht="17" thickBot="1" x14ac:dyDescent="0.3">
@@ -37502,7 +37532,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="R77 J93:J101 N93 F87:F106 N77:N82 N85:N89 L92:L93 C89:C90 C79:C87 F77:F82 P78:P81 J86:J87 L77:L79 L81:L84 L86 L88:L90 J77:J79 J81:J83 H77:H82 H84:H90 H23 F34 F37 F28:F32 F23:F26 P23:P29 N24:N26 N37:N38 H31:H35 J35:J36 L33 L38 L35:L36 L23:L25 L27:L28 J32:J33 J27:J28 H26 H28 F39">
+  <conditionalFormatting sqref="R77 J93:J101 N93 F87:F106 N77:N82 N85:N89 L92:L93 C89:C90 C79:C87 F77:F82 P78:P81 J86:J87 L77:L79 L81:L84 L86 L88:L90 J77:J79 J81:J83 H77:H82 H84:H90 F34 F37 F28:F32 P23:P29 N24:N26 N37:N38 J35:J36 L33 L38 L35:L36 L23:L25 L27:L28 J32:J33 F39 J28 H32:H34 F24:F25 H23:H26 H29">
     <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -38175,7 +38205,7 @@
       <c r="A2" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="290" t="s">
         <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -38186,7 +38216,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="288"/>
+      <c r="B3" s="290"/>
       <c r="C3" s="28" t="s">
         <v>192</v>
       </c>
@@ -38195,7 +38225,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="290" t="s">
         <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -38206,7 +38236,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="288"/>
+      <c r="B5" s="290"/>
       <c r="C5" s="2" t="s">
         <v>195</v>
       </c>
@@ -38215,7 +38245,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="288"/>
+      <c r="B6" s="290"/>
       <c r="C6" s="28" t="s">
         <v>196</v>
       </c>
@@ -38224,7 +38254,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="288"/>
+      <c r="B7" s="290"/>
       <c r="C7" s="2" t="s">
         <v>197</v>
       </c>
@@ -43678,43 +43708,43 @@
       <c r="AL40" s="10"/>
     </row>
     <row r="41" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="289"/>
-      <c r="C41" s="290"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
-      <c r="K41" s="290"/>
-      <c r="L41" s="290"/>
-      <c r="M41" s="290"/>
-      <c r="N41" s="290"/>
-      <c r="O41" s="290"/>
-      <c r="P41" s="290"/>
-      <c r="Q41" s="290"/>
-      <c r="R41" s="290"/>
-      <c r="S41" s="290"/>
-      <c r="T41" s="290"/>
-      <c r="U41" s="290"/>
-      <c r="V41" s="290"/>
-      <c r="W41" s="290"/>
-      <c r="X41" s="290"/>
-      <c r="Y41" s="290"/>
-      <c r="Z41" s="290"/>
-      <c r="AA41" s="290"/>
-      <c r="AB41" s="290"/>
-      <c r="AC41" s="290"/>
-      <c r="AD41" s="290"/>
-      <c r="AE41" s="290"/>
-      <c r="AF41" s="290"/>
-      <c r="AG41" s="290"/>
-      <c r="AH41" s="290"/>
-      <c r="AI41" s="290"/>
-      <c r="AJ41" s="290"/>
-      <c r="AK41" s="290"/>
-      <c r="AL41" s="291"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="292"/>
+      <c r="D41" s="292"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="292"/>
+      <c r="H41" s="292"/>
+      <c r="I41" s="292"/>
+      <c r="J41" s="292"/>
+      <c r="K41" s="292"/>
+      <c r="L41" s="292"/>
+      <c r="M41" s="292"/>
+      <c r="N41" s="292"/>
+      <c r="O41" s="292"/>
+      <c r="P41" s="292"/>
+      <c r="Q41" s="292"/>
+      <c r="R41" s="292"/>
+      <c r="S41" s="292"/>
+      <c r="T41" s="292"/>
+      <c r="U41" s="292"/>
+      <c r="V41" s="292"/>
+      <c r="W41" s="292"/>
+      <c r="X41" s="292"/>
+      <c r="Y41" s="292"/>
+      <c r="Z41" s="292"/>
+      <c r="AA41" s="292"/>
+      <c r="AB41" s="292"/>
+      <c r="AC41" s="292"/>
+      <c r="AD41" s="292"/>
+      <c r="AE41" s="292"/>
+      <c r="AF41" s="292"/>
+      <c r="AG41" s="292"/>
+      <c r="AH41" s="292"/>
+      <c r="AI41" s="292"/>
+      <c r="AJ41" s="292"/>
+      <c r="AK41" s="292"/>
+      <c r="AL41" s="293"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
@@ -45154,7 +45184,7 @@
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" ht="29" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:5" ht="33" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>507</v>
       </c>
@@ -47057,43 +47087,43 @@
       <c r="AL40" s="6"/>
     </row>
     <row r="41" spans="1:40" s="45" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="289"/>
-      <c r="C41" s="290"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
-      <c r="H41" s="290"/>
-      <c r="I41" s="290"/>
-      <c r="J41" s="290"/>
-      <c r="K41" s="290"/>
-      <c r="L41" s="290"/>
-      <c r="M41" s="290"/>
-      <c r="N41" s="290"/>
-      <c r="O41" s="290"/>
-      <c r="P41" s="290"/>
-      <c r="Q41" s="290"/>
-      <c r="R41" s="290"/>
-      <c r="S41" s="290"/>
-      <c r="T41" s="290"/>
-      <c r="U41" s="290"/>
-      <c r="V41" s="290"/>
-      <c r="W41" s="290"/>
-      <c r="X41" s="290"/>
-      <c r="Y41" s="290"/>
-      <c r="Z41" s="290"/>
-      <c r="AA41" s="290"/>
-      <c r="AB41" s="290"/>
-      <c r="AC41" s="290"/>
-      <c r="AD41" s="290"/>
-      <c r="AE41" s="290"/>
-      <c r="AF41" s="290"/>
-      <c r="AG41" s="290"/>
-      <c r="AH41" s="290"/>
-      <c r="AI41" s="290"/>
-      <c r="AJ41" s="290"/>
-      <c r="AK41" s="290"/>
-      <c r="AL41" s="291"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="292"/>
+      <c r="D41" s="292"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="292"/>
+      <c r="H41" s="292"/>
+      <c r="I41" s="292"/>
+      <c r="J41" s="292"/>
+      <c r="K41" s="292"/>
+      <c r="L41" s="292"/>
+      <c r="M41" s="292"/>
+      <c r="N41" s="292"/>
+      <c r="O41" s="292"/>
+      <c r="P41" s="292"/>
+      <c r="Q41" s="292"/>
+      <c r="R41" s="292"/>
+      <c r="S41" s="292"/>
+      <c r="T41" s="292"/>
+      <c r="U41" s="292"/>
+      <c r="V41" s="292"/>
+      <c r="W41" s="292"/>
+      <c r="X41" s="292"/>
+      <c r="Y41" s="292"/>
+      <c r="Z41" s="292"/>
+      <c r="AA41" s="292"/>
+      <c r="AB41" s="292"/>
+      <c r="AC41" s="292"/>
+      <c r="AD41" s="292"/>
+      <c r="AE41" s="292"/>
+      <c r="AF41" s="292"/>
+      <c r="AG41" s="292"/>
+      <c r="AH41" s="292"/>
+      <c r="AI41" s="292"/>
+      <c r="AJ41" s="292"/>
+      <c r="AK41" s="292"/>
+      <c r="AL41" s="293"/>
     </row>
     <row r="42" spans="1:40" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
@@ -50384,7 +50414,7 @@
     <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" ht="55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:5" ht="65" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="58" t="s">
         <v>508</v>
       </c>
@@ -51995,43 +52025,43 @@
       <c r="AL35" s="6"/>
     </row>
     <row r="36" spans="1:38" s="45" customFormat="1" ht="8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="289"/>
-      <c r="C36" s="290"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="290"/>
-      <c r="J36" s="290"/>
-      <c r="K36" s="290"/>
-      <c r="L36" s="290"/>
-      <c r="M36" s="290"/>
-      <c r="N36" s="290"/>
-      <c r="O36" s="290"/>
-      <c r="P36" s="290"/>
-      <c r="Q36" s="290"/>
-      <c r="R36" s="290"/>
-      <c r="S36" s="290"/>
-      <c r="T36" s="290"/>
-      <c r="U36" s="290"/>
-      <c r="V36" s="290"/>
-      <c r="W36" s="290"/>
-      <c r="X36" s="290"/>
-      <c r="Y36" s="290"/>
-      <c r="Z36" s="290"/>
-      <c r="AA36" s="290"/>
-      <c r="AB36" s="290"/>
-      <c r="AC36" s="290"/>
-      <c r="AD36" s="290"/>
-      <c r="AE36" s="290"/>
-      <c r="AF36" s="290"/>
-      <c r="AG36" s="290"/>
-      <c r="AH36" s="290"/>
-      <c r="AI36" s="290"/>
-      <c r="AJ36" s="290"/>
-      <c r="AK36" s="290"/>
-      <c r="AL36" s="291"/>
+      <c r="B36" s="291"/>
+      <c r="C36" s="292"/>
+      <c r="D36" s="292"/>
+      <c r="E36" s="292"/>
+      <c r="F36" s="292"/>
+      <c r="G36" s="292"/>
+      <c r="H36" s="292"/>
+      <c r="I36" s="292"/>
+      <c r="J36" s="292"/>
+      <c r="K36" s="292"/>
+      <c r="L36" s="292"/>
+      <c r="M36" s="292"/>
+      <c r="N36" s="292"/>
+      <c r="O36" s="292"/>
+      <c r="P36" s="292"/>
+      <c r="Q36" s="292"/>
+      <c r="R36" s="292"/>
+      <c r="S36" s="292"/>
+      <c r="T36" s="292"/>
+      <c r="U36" s="292"/>
+      <c r="V36" s="292"/>
+      <c r="W36" s="292"/>
+      <c r="X36" s="292"/>
+      <c r="Y36" s="292"/>
+      <c r="Z36" s="292"/>
+      <c r="AA36" s="292"/>
+      <c r="AB36" s="292"/>
+      <c r="AC36" s="292"/>
+      <c r="AD36" s="292"/>
+      <c r="AE36" s="292"/>
+      <c r="AF36" s="292"/>
+      <c r="AG36" s="292"/>
+      <c r="AH36" s="292"/>
+      <c r="AI36" s="292"/>
+      <c r="AJ36" s="292"/>
+      <c r="AK36" s="292"/>
+      <c r="AL36" s="293"/>
     </row>
     <row r="37" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">

--- a/项目管理/进度计划/妲己游戏计划.xlsx
+++ b/项目管理/进度计划/妲己游戏计划.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="700" windowWidth="35140" windowHeight="18720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1000" yWindow="1420" windowWidth="35140" windowHeight="18720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏范围" sheetId="2" r:id="rId1"/>
@@ -5252,7 +5252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -5317,7 +5317,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6835,7 +6835,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6844,7 +6844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6856,7 +6856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -6988,7 +6988,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7043,7 +7043,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7399,809 +7399,809 @@
     </xf>
   </cellXfs>
   <cellStyles count="803">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="786"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="663" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="665" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="667" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="669" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="671" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="673" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="675" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="677" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="679" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="681" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="683" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="685" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="687" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="689" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="691" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="693" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="695" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="697" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="699" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="701" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="703" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="705" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="707" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="709" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="711" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="713" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="715" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="717" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="719" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="721" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="723" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="725" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="727" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="729" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="731" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="733" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="735" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="737" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="739" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="741" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="743" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="745" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="747" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="749" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="751" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="753" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="755" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="757" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="759" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="761" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="763" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="765" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="767" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="769" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="771" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="773" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="775" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="777" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="779" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="781" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="783" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="785" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="788" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="790" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="792" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="794" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="796" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="798" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="800" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="802" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="175">
     <dxf>
@@ -35688,8 +35688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="J28" sqref="F23:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -35903,7 +35903,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="C10" s="192" t="s">
         <v>491</v>
       </c>
@@ -36270,7 +36270,7 @@
       <c r="O27" s="205"/>
       <c r="P27" s="65"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" ht="32" x14ac:dyDescent="0.25">
       <c r="C28" s="67"/>
       <c r="D28" s="205"/>
       <c r="E28" s="205"/>
@@ -36808,7 +36808,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="3:18" s="239" customFormat="1" ht="32" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:18" s="239" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="C66" s="232" t="s">
         <v>491</v>
       </c>
@@ -36868,7 +36868,7 @@
       <c r="O68" s="234"/>
       <c r="P68" s="243"/>
     </row>
-    <row r="69" spans="3:18" s="239" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:18" s="239" customFormat="1" ht="65" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="232" t="s">
         <v>497</v>
       </c>
@@ -44343,7 +44343,7 @@
       <c r="AK56" s="8"/>
       <c r="AL56" s="10"/>
     </row>
-    <row r="57" spans="2:38" ht="208" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:38" ht="192" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="10"/>
@@ -45184,7 +45184,7 @@
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" ht="33" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:5" ht="29" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>507</v>
       </c>
@@ -49664,7 +49664,7 @@
       <c r="AK89" s="8"/>
       <c r="AL89" s="10"/>
     </row>
-    <row r="90" spans="2:38" s="45" customFormat="1" ht="208" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:38" s="45" customFormat="1" ht="192" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="10"/>
@@ -50414,7 +50414,7 @@
     <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" ht="65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:5" ht="55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="58" t="s">
         <v>508</v>
       </c>
@@ -51565,7 +51565,7 @@
       <c r="AK29" s="11"/>
       <c r="AL29" s="10"/>
     </row>
-    <row r="30" spans="1:38" ht="32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="48" x14ac:dyDescent="0.25">
       <c r="A30" s="102" t="s">
         <v>173</v>
       </c>
